--- a/formularios/inventario.xlsx
+++ b/formularios/inventario.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F186"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,11 +440,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="26" customWidth="1" min="2" max="2"/>
+    <col width="21" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="17" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="31" customWidth="1" min="6" max="6"/>
+    <col width="35" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -482,4546 +482,4546 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Ev-300</t>
+          <t>gJ-951</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Base Long</t>
+          <t>Past Artist</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>9768.860000000001</v>
+        <v>2345.23</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>7209.3</v>
+        <v>2077.97</v>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>Moore-White</t>
+          <t>Snyder-Lewis</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>Gk-413</t>
+          <t>HQ-858</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>What Food</t>
+          <t>Form Long</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>10939.4</v>
+        <v>6888.52</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>7366.98</v>
+        <v>4823.24</v>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>Williams, Gallegos and Booth</t>
+          <t>Morse, Chavez and Montgomery</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Pp-219</t>
+          <t>vF-331</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Visit Class</t>
+          <t>So Avoid</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>8680.48</v>
+        <v>3266.18</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>5873.34</v>
+        <v>2799.03</v>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>Johnson, Brown and Jefferson</t>
+          <t>Mcpherson-Clark</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Ft-029</t>
+          <t>HS-127</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Maybe Watch</t>
+          <t>Hand Surface</t>
         </is>
       </c>
       <c r="C5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>10218.92</v>
+        <v>12578.39</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>9252.139999999999</v>
+        <v>9768.040000000001</v>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>Wilkins PLC</t>
+          <t>Lopez, Charles and West</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>VE-600</t>
+          <t>MO-748</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Congress Mr</t>
+          <t>Street Animal</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>5532.27</v>
+        <v>8263.139999999999</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>4063.12</v>
+        <v>6964.63</v>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>Delgado, Garcia and Henderson</t>
+          <t>Wilkins PLC</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>zl-263</t>
+          <t>EQ-664</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Per Range</t>
+          <t>True Mother</t>
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>9234.65</v>
+        <v>3516.47</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>8013.37</v>
+        <v>2429.62</v>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>Johnson, Brown and Jefferson</t>
+          <t>Brock-Greene</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Dc-482</t>
+          <t>gL-373</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Listen Do</t>
+          <t>Share Office</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>4798.35</v>
+        <v>13276.15</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>4207.05</v>
+        <v>8895.91</v>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>Powell-Lowery</t>
+          <t>Hardin-Golden</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>GE-135</t>
+          <t>jG-754</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Care Property</t>
+          <t>Bit Also</t>
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>10037.35</v>
+        <v>14004.96</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>7347.5</v>
+        <v>9698.6</v>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>Hill and Sons</t>
+          <t>Meyer and Sons</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>Ln-224</t>
+          <t>eo-658</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Language She</t>
+          <t>Finish Plant</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>5057.12</v>
+        <v>1926.79</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>3751.16</v>
+        <v>1621.33</v>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>West Inc</t>
+          <t>King, Zuniga and Robinson</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>vj-823</t>
+          <t>PX-318</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Break Alone</t>
+          <t>Would Sing</t>
         </is>
       </c>
       <c r="C11" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>10675.81</v>
+        <v>13293.21</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>7628.69</v>
+        <v>9354.84</v>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>Smith PLC</t>
+          <t>Cardenas, Figueroa and Williamson</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>rR-102</t>
+          <t>Hz-088</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Brother Set</t>
+          <t>Throw Hard</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>4505.58</v>
+        <v>7726.05</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>3122.96</v>
+        <v>6207.6</v>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>Thompson PLC</t>
+          <t>Beltran Group</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>xr-607</t>
+          <t>EB-355</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Feeling Top</t>
+          <t>Experience Maintain</t>
         </is>
       </c>
       <c r="C13" s="3" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>4309.4</v>
+        <v>2582.64</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>3478.07</v>
+        <v>2118.68</v>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>Carroll and Sons</t>
+          <t>Atkins-Thomas</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>EX-822</t>
+          <t>wf-590</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Year Process</t>
+          <t>Clear Other</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>13633.63</v>
+        <v>11187.58</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>9270.08</v>
+        <v>7608.7</v>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>Carson Ltd</t>
+          <t>Anderson-Barnes</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>qQ-644</t>
+          <t>Ua-699</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Necessary Able</t>
+          <t>Sing Seem</t>
         </is>
       </c>
       <c r="C15" s="3" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>2822.98</v>
+        <v>6206.57</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>2465.71</v>
+        <v>4450.67</v>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>Tanner, Stein and Miller</t>
+          <t>Cole-Taylor</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>DU-840</t>
+          <t>My-088</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Between Street</t>
+          <t>Two Accept</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
         <v>34</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>13148.38</v>
+        <v>10215.19</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>8949.719999999999</v>
+        <v>8233.440000000001</v>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>No Registrado</t>
+          <t>Olson PLC</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>ek-266</t>
+          <t>LK-868</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Cup Television</t>
+          <t>Baby Wait</t>
         </is>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>2782.94</v>
+        <v>10562.69</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>2450.12</v>
+        <v>8686.26</v>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>Sharp Group</t>
+          <t>Evans PLC</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>QG-328</t>
+          <t>FB-852</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Social Sell</t>
+          <t>Have Open</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>4724.19</v>
+        <v>7308.59</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>3262.74</v>
+        <v>5477.83</v>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>Hendricks, Anderson and Hart</t>
+          <t>Williams-Clark</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>pB-796</t>
+          <t>PJ-622</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Or Dog</t>
+          <t>Lose Center</t>
         </is>
       </c>
       <c r="C19" s="3" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>7726.86</v>
+        <v>5545.25</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>6414.24</v>
+        <v>4353.01</v>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>No Registrado</t>
+          <t>Hamilton, Lee and Delacruz</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>WD-092</t>
+          <t>Dq-782</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Nearly Probably</t>
+          <t>Open True</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>5425.02</v>
+        <v>5957.51</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>3904.52</v>
+        <v>4007.61</v>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>Glenn-Cole</t>
+          <t>Crawford-Garner</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>QI-070</t>
+          <t>SB-928</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>She Partner</t>
+          <t>Role Wonder</t>
         </is>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>3087.45</v>
+        <v>11500.22</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>2670.58</v>
+        <v>7827.26</v>
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>Jefferson LLC</t>
+          <t>Thompson Ltd</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>bt-961</t>
+          <t>RC-306</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Benefit Fly</t>
+          <t>Apply Several</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>10548.76</v>
+        <v>8483.77</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>8593.540000000001</v>
+        <v>5681.95</v>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>Anderson-Barnes</t>
+          <t>Morales Inc</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>Ol-195</t>
+          <t>fE-664</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Truth Fact</t>
+          <t>Once Positive</t>
         </is>
       </c>
       <c r="C23" s="3" t="n">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>12867.78</v>
+        <v>1536.19</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>9240.1</v>
+        <v>1036.94</v>
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>Miller-Brown</t>
+          <t>Hansen Inc</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>pj-738</t>
+          <t>UM-573</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Win Cut</t>
+          <t>Yet Interesting</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>9568.34</v>
+        <v>5583.53</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>6810.7</v>
+        <v>4772.03</v>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>Wallace Ltd</t>
+          <t>Woods, Rivera and Duncan</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>eW-110</t>
+          <t>lo-900</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>In Measure</t>
+          <t>Beat Stock</t>
         </is>
       </c>
       <c r="C25" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>3338.77</v>
+        <v>4034.34</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>2364.44</v>
+        <v>3102.32</v>
       </c>
       <c r="F25" s="3" t="inlineStr">
         <is>
-          <t>Carson Ltd</t>
+          <t>Long, Bowers and Rodriguez</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>HZ-352</t>
+          <t>xI-364</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Task Generation</t>
+          <t>He Black</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>10201.46</v>
+        <v>4060.62</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>8681.959999999999</v>
+        <v>3155.38</v>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>Gonzales and Sons</t>
+          <t>Glenn-Cole</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>FU-902</t>
+          <t>Ig-186</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Customer Perform</t>
+          <t>Listen Ever</t>
         </is>
       </c>
       <c r="C27" s="3" t="n">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>6910.9</v>
+        <v>4096.93</v>
       </c>
       <c r="E27" s="3" t="n">
-        <v>4953.18</v>
+        <v>3251.89</v>
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>Wagner-Lopez</t>
+          <t>Thomas-Walker</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>nd-720</t>
+          <t>Fr-244</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>Sure Officer</t>
+          <t>Hotel Official</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>7612.64</v>
+        <v>4875.3</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>5667.91</v>
+        <v>3426.5</v>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>Fry-Perry</t>
+          <t>Ellis Ltd</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>Ad-574</t>
+          <t>mj-117</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Now Thing</t>
+          <t>Interesting Economy</t>
         </is>
       </c>
       <c r="C29" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>11134.52</v>
+        <v>3779</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>9571.299999999999</v>
+        <v>3238.95</v>
       </c>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t>No Registrado</t>
+          <t>Walker-Jones</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>EB-291</t>
+          <t>Bw-528</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>Day Teacher</t>
+          <t>Pressure Place</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>2623.04</v>
+        <v>5751.07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>2165.47</v>
+        <v>4388.93</v>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>Gonzales and Sons</t>
+          <t>Carson Ltd</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>xh-676</t>
+          <t>vH-125</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Down Include</t>
+          <t>Very Officer</t>
         </is>
       </c>
       <c r="C31" s="3" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>11172.42</v>
+        <v>4276.74</v>
       </c>
       <c r="E31" s="3" t="n">
-        <v>7846.86</v>
+        <v>3860.71</v>
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t>Tanner, Stein and Miller</t>
+          <t>Johnson Inc</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>WP-247</t>
+          <t>mM-828</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>Dream Most</t>
+          <t>Less Thank</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>5517.3</v>
+        <v>6662.86</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>4014.92</v>
+        <v>5404.07</v>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>Harrison Ltd</t>
+          <t>Horn and Sons</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>ov-482</t>
+          <t>Xu-677</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>Sense Will</t>
+          <t>Win Take</t>
         </is>
       </c>
       <c r="C33" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>8911.469999999999</v>
+        <v>9093.49</v>
       </c>
       <c r="E33" s="3" t="n">
-        <v>7090.62</v>
+        <v>8235.26</v>
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>Thomas-Walker</t>
+          <t>Estrada-Lewis</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>dL-872</t>
+          <t>Wr-864</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>From Form</t>
+          <t>Condition Factor</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>1694.21</v>
+        <v>7880.01</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>1430.87</v>
+        <v>6368.12</v>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>Garza Inc</t>
+          <t>Bradley, Scott and Tucker</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>pY-618</t>
+          <t>HH-371</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>Show State</t>
+          <t>Former Both</t>
         </is>
       </c>
       <c r="C35" s="3" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>5736.86</v>
+        <v>5594.6</v>
       </c>
       <c r="E35" s="3" t="n">
-        <v>4028.58</v>
+        <v>3856.13</v>
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>Thomas-Klein</t>
+          <t>Coffey-Bailey</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>iv-981</t>
+          <t>xS-935</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>Think Purpose</t>
+          <t>Line Mrs</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>10496.28</v>
+        <v>9260.17</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>9212.940000000001</v>
+        <v>6589.18</v>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>Johnson-Smith</t>
+          <t>Vaughan PLC</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>CT-874</t>
+          <t>gn-762</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Pay Baby</t>
+          <t>Offer Current</t>
         </is>
       </c>
       <c r="C37" s="3" t="n">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>6996.5</v>
+        <v>6102.86</v>
       </c>
       <c r="E37" s="3" t="n">
-        <v>6084.81</v>
+        <v>4739.03</v>
       </c>
       <c r="F37" s="3" t="inlineStr">
         <is>
-          <t>Brown-Taylor</t>
+          <t>Miller-Brown</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>yq-244</t>
+          <t>AC-292</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>Open Mouth</t>
+          <t>Staff Edge</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>2388.73</v>
+        <v>1888.84</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>2100.55</v>
+        <v>1374.36</v>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>No Registrado</t>
+          <t>Long, Bowers and Rodriguez</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>Ox-274</t>
+          <t>Sq-627</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>Image Quite</t>
+          <t>Piece However</t>
         </is>
       </c>
       <c r="C39" s="3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>7216.94</v>
+        <v>1428.18</v>
       </c>
       <c r="E39" s="3" t="n">
-        <v>6020.61</v>
+        <v>1038.26</v>
       </c>
       <c r="F39" s="3" t="inlineStr">
         <is>
-          <t>Mays, Mccoy and Baker</t>
+          <t>Martin LLC</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>cB-457</t>
+          <t>Ci-322</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>Manager Central</t>
+          <t>Build Defense</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>4703.85</v>
+        <v>2456.47</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>3458.16</v>
+        <v>2098.93</v>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>Gonzales and Sons</t>
+          <t>Garcia LLC</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>mV-553</t>
+          <t>cR-730</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>Race Low</t>
+          <t>Firm Improve</t>
         </is>
       </c>
       <c r="C41" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>10340.95</v>
+        <v>1818.09</v>
       </c>
       <c r="E41" s="3" t="n">
-        <v>8453.719999999999</v>
+        <v>1406.18</v>
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t>No Registrado</t>
+          <t>Estrada-Lewis</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>Yd-653</t>
+          <t>eB-219</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>Despite Part</t>
+          <t>Official President</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>8796.84</v>
+        <v>10259.29</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>6401.09</v>
+        <v>8591.49</v>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>Moody Inc</t>
+          <t>Hernandez-Kirk</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>kj-917</t>
+          <t>VN-601</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Fast Open</t>
+          <t>School Memory</t>
         </is>
       </c>
       <c r="C43" s="3" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>4605.68</v>
+        <v>8493.200000000001</v>
       </c>
       <c r="E43" s="3" t="n">
-        <v>3500.8</v>
+        <v>6269.25</v>
       </c>
       <c r="F43" s="3" t="inlineStr">
         <is>
-          <t>Wallace Ltd</t>
+          <t>Woods, Rivera and Duncan</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>xX-399</t>
+          <t>SS-748</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>Travel Impact</t>
+          <t>Different Himself</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>7359.18</v>
+        <v>11781.75</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>5409.01</v>
+        <v>8100.8</v>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>Harrison Ltd</t>
+          <t>Meyer and Sons</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>tn-456</t>
+          <t>xj-568</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>Appear Able</t>
+          <t>It Themselves</t>
         </is>
       </c>
       <c r="C45" s="3" t="n">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>7374.8</v>
+        <v>4599.16</v>
       </c>
       <c r="E45" s="3" t="n">
-        <v>5108.32</v>
+        <v>3670.81</v>
       </c>
       <c r="F45" s="3" t="inlineStr">
         <is>
-          <t>Fleming, Chan and Frank</t>
+          <t>Terry, Watts and Reed</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>Cr-475</t>
+          <t>WI-864</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>When Bar</t>
+          <t>Themselves Hear</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>5743.15</v>
+        <v>7396.53</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>4197.09</v>
+        <v>6121.92</v>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>Anderson-Barnes</t>
+          <t>Hill and Sons</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>Wi-206</t>
+          <t>Kl-223</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>Citizen Author</t>
+          <t>None Meeting</t>
         </is>
       </c>
       <c r="C47" s="3" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>6276.23</v>
+        <v>11115.71</v>
       </c>
       <c r="E47" s="3" t="n">
-        <v>5594.13</v>
+        <v>9906.030000000001</v>
       </c>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>Brock-Greene</t>
+          <t>Williams-Clark</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>mj-015</t>
+          <t>Cf-400</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>Seven Edge</t>
+          <t>Save Radio</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>7040.42</v>
+        <v>2102.75</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>5476.57</v>
+        <v>1869.35</v>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>Johnson Inc</t>
+          <t>Beltran Group</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>Im-429</t>
+          <t>pv-216</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Man Detail</t>
+          <t>Type Network</t>
         </is>
       </c>
       <c r="C49" s="3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>11340.98</v>
+        <v>7942.38</v>
       </c>
       <c r="E49" s="3" t="n">
-        <v>7711.97</v>
+        <v>6043.57</v>
       </c>
       <c r="F49" s="3" t="inlineStr">
         <is>
-          <t>Flowers-Williams</t>
+          <t>Williams, Christian and Flores</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>EP-241</t>
+          <t>NF-642</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>Pretty Responsibility</t>
+          <t>Red They</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>4678.26</v>
+        <v>12988.05</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>3188.97</v>
+        <v>9882.34</v>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>Jarvis Group</t>
+          <t>Clark-Foster</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>HG-828</t>
+          <t>rP-341</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>Mr First</t>
+          <t>Six Much</t>
         </is>
       </c>
       <c r="C51" s="3" t="n">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>3163.36</v>
+        <v>3247.86</v>
       </c>
       <c r="E51" s="3" t="n">
-        <v>2432.92</v>
+        <v>2246.56</v>
       </c>
       <c r="F51" s="3" t="inlineStr">
         <is>
-          <t>No Registrado</t>
+          <t>Mcclain-Kim</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>jc-409</t>
+          <t>IP-593</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>Impact Start</t>
+          <t>Son Reason</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>11719.98</v>
+        <v>12648.47</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>8972.93</v>
+        <v>8756.040000000001</v>
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>No Registrado</t>
+          <t>Cruz, Moreno and Henderson</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>ur-018</t>
+          <t>ba-062</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>Manage Career</t>
+          <t>Account Dinner</t>
         </is>
       </c>
       <c r="C53" s="3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>12872.59</v>
+        <v>7930.76</v>
       </c>
       <c r="E53" s="3" t="n">
-        <v>9093.110000000001</v>
+        <v>5544.66</v>
       </c>
       <c r="F53" s="3" t="inlineStr">
         <is>
-          <t>Miller-Brown</t>
+          <t>Anderson-Rose</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>Lk-780</t>
+          <t>sj-484</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>Trip Mrs</t>
+          <t>Quite Low</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>10380.4</v>
+        <v>8481.02</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>7685.51</v>
+        <v>7154.2</v>
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>Wallace Ltd</t>
+          <t>Hill LLC</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>pg-687</t>
+          <t>iN-621</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Gas Great</t>
+          <t>Feeling Let</t>
         </is>
       </c>
       <c r="C55" s="3" t="n">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>5725.7</v>
+        <v>7176.11</v>
       </c>
       <c r="E55" s="3" t="n">
-        <v>4552.48</v>
+        <v>5115.94</v>
       </c>
       <c r="F55" s="3" t="inlineStr">
         <is>
-          <t>Ellison-Davis</t>
+          <t>Hull-Hudson</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>Fh-566</t>
+          <t>VX-895</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>Past Yourself</t>
+          <t>Building Congress</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>1492.02</v>
+        <v>6087.73</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>1165.74</v>
+        <v>5249.8</v>
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>Williams-Clark</t>
+          <t>Sharp Group</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>Kq-290</t>
+          <t>xo-467</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>Until Sound</t>
+          <t>Religious Spring</t>
         </is>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>11618.56</v>
+        <v>6015.31</v>
       </c>
       <c r="E57" s="3" t="n">
-        <v>9480.43</v>
+        <v>4667.17</v>
       </c>
       <c r="F57" s="3" t="inlineStr">
         <is>
-          <t>Obrien, Mitchell and Scott</t>
+          <t>Roberts, Pennington and Hardy</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>DC-972</t>
+          <t>UW-122</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>Sometimes Successful</t>
+          <t>Above Seem</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>1836.13</v>
+        <v>6843.44</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>1441.07</v>
+        <v>4911.83</v>
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>Hendricks, Anderson and Hart</t>
+          <t>Huber-White</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>OC-688</t>
+          <t>zl-936</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>Training Management</t>
+          <t>Someone Identify</t>
         </is>
       </c>
       <c r="C59" s="3" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>4990.37</v>
+        <v>7103.61</v>
       </c>
       <c r="E59" s="3" t="n">
-        <v>4110</v>
+        <v>6455.58</v>
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
-          <t>No Registrado</t>
+          <t>Washington Group</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>fm-450</t>
+          <t>pN-385</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>Hard Teacher</t>
+          <t>Fact So</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>9715.48</v>
+        <v>2730.34</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>8111.11</v>
+        <v>1944.17</v>
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>Fowler, Collins and Reynolds</t>
+          <t>Graham, Johnson and Green</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>hg-892</t>
+          <t>EK-368</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Opportunity Effect</t>
+          <t>Together Region</t>
         </is>
       </c>
       <c r="C61" s="3" t="n">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>2920.11</v>
+        <v>3269.26</v>
       </c>
       <c r="E61" s="3" t="n">
-        <v>2510.9</v>
+        <v>2871.34</v>
       </c>
       <c r="F61" s="3" t="inlineStr">
         <is>
-          <t>No Registrado</t>
+          <t>Snyder-Lewis</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>bm-388</t>
+          <t>Gv-587</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>Job Next</t>
+          <t>Politics Heart</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>9610.08</v>
+        <v>6538.17</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>7778.41</v>
+        <v>4423.36</v>
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>Howe, Leonard and Robertson</t>
+          <t>Atkins-Thomas</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>By-261</t>
+          <t>wy-105</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>Situation Safe</t>
+          <t>Himself Style</t>
         </is>
       </c>
       <c r="C63" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>2811.62</v>
+        <v>7261.21</v>
       </c>
       <c r="E63" s="3" t="n">
-        <v>2525.79</v>
+        <v>5560.88</v>
       </c>
       <c r="F63" s="3" t="inlineStr">
         <is>
-          <t>No Registrado</t>
+          <t>Williams-Clark</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>OS-880</t>
+          <t>jM-014</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>Among Same</t>
+          <t>Like Radio</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>2838.58</v>
+        <v>2026.45</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>2371.55</v>
+        <v>1449.51</v>
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>No Registrado</t>
+          <t>Hill-Myers</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>Tn-381</t>
+          <t>DE-604</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>Family Win</t>
+          <t>Stuff Situation</t>
         </is>
       </c>
       <c r="C65" s="3" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>9919.379999999999</v>
+        <v>10068.38</v>
       </c>
       <c r="E65" s="3" t="n">
-        <v>7152.59</v>
+        <v>8687.120000000001</v>
       </c>
       <c r="F65" s="3" t="inlineStr">
         <is>
-          <t>Davenport, Sharp and Duran</t>
+          <t>Woods, Rivera and Duncan</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>dI-621</t>
+          <t>bO-468</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>Former Prepare</t>
+          <t>Claim Across</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>7661.82</v>
+        <v>11718.14</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>6920.87</v>
+        <v>8377.799999999999</v>
       </c>
       <c r="F66" s="2" t="inlineStr">
         <is>
-          <t>Cole-Taylor</t>
+          <t>Keller, Gonzalez and Chang</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>GS-425</t>
+          <t>uK-464</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>Religious Into</t>
+          <t>Admit Experience</t>
         </is>
       </c>
       <c r="C67" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>8541.129999999999</v>
+        <v>12881.72</v>
       </c>
       <c r="E67" s="3" t="n">
-        <v>6528.57</v>
+        <v>8862.700000000001</v>
       </c>
       <c r="F67" s="3" t="inlineStr">
         <is>
-          <t>Jefferson LLC</t>
+          <t>Thomas-Klein</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>YU-820</t>
+          <t>Ki-797</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>Most Not</t>
+          <t>Data Century</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>7569.45</v>
+        <v>6918.9</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>5400.36</v>
+        <v>5383.78</v>
       </c>
       <c r="F68" s="2" t="inlineStr">
         <is>
-          <t>Brock-Greene</t>
+          <t>Williams, Christian and Flores</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>Ue-707</t>
+          <t>VZ-344</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>Happen How</t>
+          <t>Civil International</t>
         </is>
       </c>
       <c r="C69" s="3" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>12579.28</v>
+        <v>3330.89</v>
       </c>
       <c r="E69" s="3" t="n">
-        <v>8455.84</v>
+        <v>3008.44</v>
       </c>
       <c r="F69" s="3" t="inlineStr">
         <is>
-          <t>No Registrado</t>
+          <t>Delgado, Garcia and Henderson</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>JY-255</t>
+          <t>FW-096</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>Beyond Strategy</t>
+          <t>Seem Study</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>11952.46</v>
+        <v>4655.41</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>9717.85</v>
+        <v>3211.21</v>
       </c>
       <c r="F70" s="2" t="inlineStr">
         <is>
-          <t>Turner Group</t>
+          <t>Walker-Jones</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>lh-902</t>
+          <t>NC-727</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>Crime Thing</t>
+          <t>Enjoy Score</t>
         </is>
       </c>
       <c r="C71" s="3" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D71" s="3" t="n">
-        <v>9035.07</v>
+        <v>3805.32</v>
       </c>
       <c r="E71" s="3" t="n">
-        <v>7271.78</v>
+        <v>2588.02</v>
       </c>
       <c r="F71" s="3" t="inlineStr">
         <is>
-          <t>No Registrado</t>
+          <t>Sims LLC</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>YO-069</t>
+          <t>FJ-355</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>There With</t>
+          <t>Concern Feel</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>6014.22</v>
+        <v>10551.96</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>4234.96</v>
+        <v>8639.17</v>
       </c>
       <c r="F72" s="2" t="inlineStr">
         <is>
-          <t>Allen PLC</t>
+          <t>Turner Group</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>iK-791</t>
+          <t>uO-033</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>Sign All</t>
+          <t>Policy Make</t>
         </is>
       </c>
       <c r="C73" s="3" t="n">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="D73" s="3" t="n">
-        <v>9177.940000000001</v>
+        <v>7179.58</v>
       </c>
       <c r="E73" s="3" t="n">
-        <v>6182.21</v>
+        <v>5508.82</v>
       </c>
       <c r="F73" s="3" t="inlineStr">
         <is>
-          <t>No Registrado</t>
+          <t>Butler, Adams and Woods</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>Cr-244</t>
+          <t>rX-140</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>Everything A</t>
+          <t>Boy Letter</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>10645.13</v>
+        <v>2185.19</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>7448.58</v>
+        <v>1669.48</v>
       </c>
       <c r="F74" s="2" t="inlineStr">
         <is>
-          <t>Smith PLC</t>
+          <t>Morse, Chavez and Montgomery</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>gH-532</t>
+          <t>yg-904</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>Cover Likely</t>
+          <t>Finally Together</t>
         </is>
       </c>
       <c r="C75" s="3" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D75" s="3" t="n">
-        <v>2876.22</v>
+        <v>11236.76</v>
       </c>
       <c r="E75" s="3" t="n">
-        <v>2074.21</v>
+        <v>9007.879999999999</v>
       </c>
       <c r="F75" s="3" t="inlineStr">
         <is>
-          <t>Travis, Cole and Andrade</t>
+          <t>Young-Warner</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>OM-301</t>
+          <t>Ml-469</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>Positive Enjoy</t>
+          <t>Ball Ball</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>8699.540000000001</v>
+        <v>5263.16</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>7557.16</v>
+        <v>4060.75</v>
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>Gonzales and Sons</t>
+          <t>Romero Group</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>cv-541</t>
+          <t>wY-528</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>Company Learn</t>
+          <t>One With</t>
         </is>
       </c>
       <c r="C77" s="3" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D77" s="3" t="n">
-        <v>7712.3</v>
+        <v>8933.450000000001</v>
       </c>
       <c r="E77" s="3" t="n">
-        <v>6500.03</v>
+        <v>6976.53</v>
       </c>
       <c r="F77" s="3" t="inlineStr">
         <is>
-          <t>Flowers-Williams</t>
+          <t>Huber-White</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>wW-883</t>
+          <t>md-102</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>Worker Throw</t>
+          <t>Expect Subject</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>1399.29</v>
+        <v>1920.33</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>1142.24</v>
+        <v>1311.48</v>
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>Moore-White</t>
+          <t>Miller-Brown</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>DC-604</t>
+          <t>ys-304</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>By Give</t>
+          <t>Me Lead</t>
         </is>
       </c>
       <c r="C79" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D79" s="3" t="n">
-        <v>4868.78</v>
+        <v>5709.21</v>
       </c>
       <c r="E79" s="3" t="n">
-        <v>3742.32</v>
+        <v>4297.23</v>
       </c>
       <c r="F79" s="3" t="inlineStr">
         <is>
-          <t>Webb-Pacheco</t>
+          <t>Johnston-Duncan</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>Xy-101</t>
+          <t>gz-054</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>Goal News</t>
+          <t>Since Newspaper</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>10845.72</v>
+        <v>1729.91</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>8903.790000000001</v>
+        <v>1293.36</v>
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>Ross-Potts</t>
+          <t>Wells, Roy and Reed</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>Vr-731</t>
+          <t>Ej-292</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>Particularly Performance</t>
+          <t>Career Decade</t>
         </is>
       </c>
       <c r="C81" s="3" t="n">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D81" s="3" t="n">
-        <v>6275.15</v>
+        <v>9802.799999999999</v>
       </c>
       <c r="E81" s="3" t="n">
-        <v>4859.13</v>
+        <v>8082.07</v>
       </c>
       <c r="F81" s="3" t="inlineStr">
         <is>
-          <t>Poole-Kent</t>
+          <t>Butler, Adams and Woods</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>zo-449</t>
+          <t>Mq-874</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>Miss Team</t>
+          <t>Wait Born</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>12694.52</v>
+        <v>5854.89</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>9973.370000000001</v>
+        <v>3930.24</v>
       </c>
       <c r="F82" s="2" t="inlineStr">
         <is>
-          <t>Flowers-Williams</t>
+          <t>Hamilton, Lee and Delacruz</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>eu-539</t>
+          <t>Lp-906</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>Never Nearly</t>
+          <t>Southern Course</t>
         </is>
       </c>
       <c r="C83" s="3" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D83" s="3" t="n">
-        <v>8579.23</v>
+        <v>4259.27</v>
       </c>
       <c r="E83" s="3" t="n">
-        <v>6515.07</v>
+        <v>3694.02</v>
       </c>
       <c r="F83" s="3" t="inlineStr">
         <is>
-          <t>Turner Group</t>
+          <t>Bailey, Larson and Hartman</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>qo-468</t>
+          <t>ma-567</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>War Politics</t>
+          <t>Price Catch</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>4062.25</v>
+        <v>6552.57</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>3531.62</v>
+        <v>5858.17</v>
       </c>
       <c r="F84" s="2" t="inlineStr">
         <is>
-          <t>Garza Inc</t>
+          <t>Obrien, Mitchell and Scott</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>Ex-952</t>
+          <t>cA-228</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>Leave Accept</t>
+          <t>Similar Radio</t>
         </is>
       </c>
       <c r="C85" s="3" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D85" s="3" t="n">
-        <v>3070.2</v>
+        <v>12345.38</v>
       </c>
       <c r="E85" s="3" t="n">
-        <v>2436.78</v>
+        <v>9306.34</v>
       </c>
       <c r="F85" s="3" t="inlineStr">
         <is>
-          <t>Wallace Ltd</t>
+          <t>Mays, Mccoy and Baker</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>ka-049</t>
+          <t>xw-341</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>Receive Production</t>
+          <t>Well Test</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>3259.11</v>
+        <v>6363.33</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>2278.37</v>
+        <v>5104.29</v>
       </c>
       <c r="F86" s="2" t="inlineStr">
         <is>
-          <t>Johnson, Brown and Jefferson</t>
+          <t>Jacobs-Rose</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>ZH-472</t>
+          <t>Es-412</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>Home Else</t>
+          <t>Teacher City</t>
         </is>
       </c>
       <c r="C87" s="3" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D87" s="3" t="n">
-        <v>13659.95</v>
+        <v>10257.43</v>
       </c>
       <c r="E87" s="3" t="n">
-        <v>9308.799999999999</v>
+        <v>8888.889999999999</v>
       </c>
       <c r="F87" s="3" t="inlineStr">
         <is>
-          <t>Torres-Morgan</t>
+          <t>Tanner, Stein and Miller</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>RK-404</t>
+          <t>Tn-115</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>If Produce</t>
+          <t>Sort Measure</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>7684.25</v>
+        <v>7102.96</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>6095.3</v>
+        <v>5440.98</v>
       </c>
       <c r="F88" s="2" t="inlineStr">
         <is>
-          <t>Carson Ltd</t>
+          <t>Love-Fitzpatrick</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>lN-479</t>
+          <t>Jk-379</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>Dog Expect</t>
+          <t>Chair Every</t>
         </is>
       </c>
       <c r="C89" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D89" s="3" t="n">
-        <v>11636.74</v>
+        <v>3030.83</v>
       </c>
       <c r="E89" s="3" t="n">
-        <v>7837.78</v>
+        <v>2602.09</v>
       </c>
       <c r="F89" s="3" t="inlineStr">
         <is>
-          <t>Clark, Williamson and Hall</t>
+          <t>Jones, Torres and Bond</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>bs-251</t>
+          <t>Xp-462</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>Suddenly Public</t>
+          <t>Good Open</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>12466.6</v>
+        <v>8911.440000000001</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>9523.57</v>
+        <v>5993.37</v>
       </c>
       <c r="F90" s="2" t="inlineStr">
         <is>
-          <t>Simmons-Gilbert</t>
+          <t>West Inc</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>MG-961</t>
+          <t>cP-289</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>Would Finish</t>
+          <t>Material Sure</t>
         </is>
       </c>
       <c r="C91" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D91" s="3" t="n">
-        <v>11115.16</v>
+        <v>8026.71</v>
       </c>
       <c r="E91" s="3" t="n">
-        <v>9704.35</v>
+        <v>5571.62</v>
       </c>
       <c r="F91" s="3" t="inlineStr">
         <is>
-          <t>Torres-Morgan</t>
+          <t>Hull-Hudson</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>te-152</t>
+          <t>AN-341</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>House Defense</t>
+          <t>Although Meeting</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>2234.21</v>
+        <v>12278.12</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>1779.28</v>
+        <v>8265.950000000001</v>
       </c>
       <c r="F92" s="2" t="inlineStr">
         <is>
-          <t>Thomas-Garcia</t>
+          <t>Moore Group</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>Wm-613</t>
+          <t>rE-774</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>Attorney Serious</t>
+          <t>Board Prepare</t>
         </is>
       </c>
       <c r="C93" s="3" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D93" s="3" t="n">
-        <v>12971.1</v>
+        <v>2658.37</v>
       </c>
       <c r="E93" s="3" t="n">
-        <v>9819.379999999999</v>
+        <v>1938.55</v>
       </c>
       <c r="F93" s="3" t="inlineStr">
         <is>
-          <t>Mcpherson-Clark</t>
+          <t>Vargas-Thompson</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>Bg-673</t>
+          <t>yQ-871</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>Off Know</t>
+          <t>Then City</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>4372.94</v>
+        <v>13217.48</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>3468.72</v>
+        <v>9447.49</v>
       </c>
       <c r="F94" s="2" t="inlineStr">
         <is>
-          <t>Allen PLC</t>
+          <t>Atkins-Turner</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>XK-446</t>
+          <t>nq-047</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>Stuff Plant</t>
+          <t>Father Bill</t>
         </is>
       </c>
       <c r="C95" s="3" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D95" s="3" t="n">
-        <v>6915.47</v>
+        <v>2947.54</v>
       </c>
       <c r="E95" s="3" t="n">
-        <v>5584.92</v>
+        <v>2288.72</v>
       </c>
       <c r="F95" s="3" t="inlineStr">
         <is>
-          <t>Obrien, Mitchell and Scott</t>
+          <t>Horn and Sons</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>Bh-832</t>
+          <t>xm-633</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>Speech Scientist</t>
+          <t>Reflect Beautiful</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>8851.290000000001</v>
+        <v>7752.6</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>7492.32</v>
+        <v>5585.52</v>
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>Williams-Clark</t>
+          <t>Wu Ltd</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>WH-380</t>
+          <t>SF-045</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>Country Care</t>
+          <t>There Modern</t>
         </is>
       </c>
       <c r="C97" s="3" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D97" s="3" t="n">
-        <v>8648.42</v>
+        <v>8082.64</v>
       </c>
       <c r="E97" s="3" t="n">
-        <v>7854.21</v>
+        <v>6844.89</v>
       </c>
       <c r="F97" s="3" t="inlineStr">
         <is>
-          <t>Vega-Torres</t>
+          <t>Wolfe-Barrera</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>eb-766</t>
+          <t>gU-842</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>Than Involve</t>
+          <t>Rich Result</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>11513.54</v>
+        <v>11174.25</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>8592.309999999999</v>
+        <v>9182.92</v>
       </c>
       <c r="F98" s="2" t="inlineStr">
         <is>
-          <t>Thompson PLC</t>
+          <t>Powell-Lowery</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>XD-214</t>
+          <t>fw-084</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>Again If</t>
+          <t>Top Different</t>
         </is>
       </c>
       <c r="C99" s="3" t="n">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="D99" s="3" t="n">
-        <v>8898.59</v>
+        <v>12296.38</v>
       </c>
       <c r="E99" s="3" t="n">
-        <v>7773.5</v>
+        <v>9414.49</v>
       </c>
       <c r="F99" s="3" t="inlineStr">
         <is>
-          <t>Mcpherson-Clark</t>
+          <t>Johnson Inc</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>nM-065</t>
+          <t>ql-221</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>Dark Inside</t>
+          <t>Matter Get</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>4365.19</v>
+        <v>8990.129999999999</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>3830.16</v>
+        <v>6172.42</v>
       </c>
       <c r="F100" s="2" t="inlineStr">
         <is>
-          <t>Johnson Inc</t>
+          <t>Green LLC</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>jm-507</t>
+          <t>wY-176</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>Increase Because</t>
+          <t>Treat Firm</t>
         </is>
       </c>
       <c r="C101" s="3" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="D101" s="3" t="n">
-        <v>12292.21</v>
+        <v>10065.34</v>
       </c>
       <c r="E101" s="3" t="n">
-        <v>9759.190000000001</v>
+        <v>8392.82</v>
       </c>
       <c r="F101" s="3" t="inlineStr">
         <is>
-          <t>No Registrado</t>
+          <t>Jacobs-Rose</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>gS-065</t>
+          <t>uj-687</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>Policy Stage</t>
+          <t>Service Need</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>4778.73</v>
+        <v>5038.16</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>3975.34</v>
+        <v>3607.64</v>
       </c>
       <c r="F102" s="2" t="inlineStr">
         <is>
-          <t>Harrison Ltd</t>
+          <t>Wilkins PLC</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>FF-384</t>
+          <t>sL-510</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>Law Your</t>
+          <t>Just Compare</t>
         </is>
       </c>
       <c r="C103" s="3" t="n">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="D103" s="3" t="n">
-        <v>3576.37</v>
+        <v>5971.56</v>
       </c>
       <c r="E103" s="3" t="n">
-        <v>3030.9</v>
+        <v>5363.35</v>
       </c>
       <c r="F103" s="3" t="inlineStr">
         <is>
-          <t>Baker, Smith and Ray</t>
+          <t>Wolfe-Nelson</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>TU-299</t>
+          <t>nz-496</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>Pm Coach</t>
+          <t>Several Account</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>3260.51</v>
+        <v>7177.79</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>2717.54</v>
+        <v>6177.4</v>
       </c>
       <c r="F104" s="2" t="inlineStr">
         <is>
-          <t>Tanner, Stein and Miller</t>
+          <t>Humphrey and Sons</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>pl-269</t>
+          <t>Sl-474</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>Military Financial</t>
+          <t>Point Little</t>
         </is>
       </c>
       <c r="C105" s="3" t="n">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="D105" s="3" t="n">
-        <v>10869.62</v>
+        <v>5677.73</v>
       </c>
       <c r="E105" s="3" t="n">
-        <v>7783.32</v>
+        <v>5093.41</v>
       </c>
       <c r="F105" s="3" t="inlineStr">
         <is>
-          <t>Fowler, Collins and Reynolds</t>
+          <t>Anderson-Barnes</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>gP-204</t>
+          <t>sq-009</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>Shake Arrive</t>
+          <t>Talk Rise</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>10819.74</v>
+        <v>9800.219999999999</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>8840.35</v>
+        <v>7226.34</v>
       </c>
       <c r="F106" s="2" t="inlineStr">
         <is>
-          <t>Garza Inc</t>
+          <t>Lewis, Rivera and Browning</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>YY-329</t>
+          <t>gF-505</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>Serve Behind</t>
+          <t>Time Organization</t>
         </is>
       </c>
       <c r="C107" s="3" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D107" s="3" t="n">
-        <v>7261.63</v>
+        <v>5699.24</v>
       </c>
       <c r="E107" s="3" t="n">
-        <v>5514.86</v>
+        <v>3931.57</v>
       </c>
       <c r="F107" s="3" t="inlineStr">
         <is>
-          <t>Nguyen, Knight and Spears</t>
+          <t>West Inc</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>eH-015</t>
+          <t>br-991</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>Especially Throughout</t>
+          <t>Right Modern</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>12123.7</v>
+        <v>4706.95</v>
       </c>
       <c r="E108" s="2" t="n">
-        <v>9010.08</v>
+        <v>3586.46</v>
       </c>
       <c r="F108" s="2" t="inlineStr">
         <is>
-          <t>Jarvis Group</t>
+          <t>Hendricks, Anderson and Hart</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>RU-833</t>
+          <t>HA-466</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>Himself Including</t>
+          <t>His Contain</t>
         </is>
       </c>
       <c r="C109" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D109" s="3" t="n">
-        <v>8432.16</v>
+        <v>5724.55</v>
       </c>
       <c r="E109" s="3" t="n">
-        <v>6310.13</v>
+        <v>4479.42</v>
       </c>
       <c r="F109" s="3" t="inlineStr">
         <is>
-          <t>Simmons-Gilbert</t>
+          <t>Harrell Ltd</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>bw-900</t>
+          <t>Ra-030</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>Do Management</t>
+          <t>Its Fire</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>12344.42</v>
+        <v>3924.46</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>8818.02</v>
+        <v>3302.6</v>
       </c>
       <c r="F110" s="2" t="inlineStr">
         <is>
-          <t>No Registrado</t>
+          <t>Obrien, Mitchell and Scott</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>of-670</t>
+          <t>DP-198</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>Conference School</t>
+          <t>Change Entire</t>
         </is>
       </c>
       <c r="C111" s="3" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="D111" s="3" t="n">
-        <v>9661.379999999999</v>
+        <v>12818.81</v>
       </c>
       <c r="E111" s="3" t="n">
-        <v>7357.73</v>
+        <v>9651.209999999999</v>
       </c>
       <c r="F111" s="3" t="inlineStr">
         <is>
-          <t>Moody Inc</t>
+          <t>Hebert-Brooks</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>wa-307</t>
+          <t>Sm-802</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>Nice Though</t>
+          <t>Modern Most</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>4492.97</v>
+        <v>5685.83</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>3548.89</v>
+        <v>4224.74</v>
       </c>
       <c r="F112" s="2" t="inlineStr">
         <is>
-          <t>No Registrado</t>
+          <t>Jefferson LLC</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>mN-198</t>
+          <t>Av-101</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>Wind Toward</t>
+          <t>Stay Attack</t>
         </is>
       </c>
       <c r="C113" s="3" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D113" s="3" t="n">
-        <v>11954.58</v>
+        <v>7016.59</v>
       </c>
       <c r="E113" s="3" t="n">
-        <v>9277.639999999999</v>
+        <v>5203.83</v>
       </c>
       <c r="F113" s="3" t="inlineStr">
         <is>
-          <t>Thomas-Morales</t>
+          <t>Hernandez-Kirk</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>JP-250</t>
+          <t>qI-774</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>Few Us</t>
+          <t>Yard Standard</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>11359.29</v>
+        <v>4356.25</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>9404.01</v>
+        <v>3949.11</v>
       </c>
       <c r="F114" s="2" t="inlineStr">
         <is>
-          <t>Cochran Inc</t>
+          <t>Charles, Sanchez and Malone</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>Vr-543</t>
+          <t>cN-133</t>
         </is>
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>Memory As</t>
+          <t>College Debate</t>
         </is>
       </c>
       <c r="C115" s="3" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D115" s="3" t="n">
-        <v>12830.09</v>
+        <v>2932.53</v>
       </c>
       <c r="E115" s="3" t="n">
-        <v>9148.790000000001</v>
+        <v>1970.52</v>
       </c>
       <c r="F115" s="3" t="inlineStr">
         <is>
-          <t>Fleming, Chan and Frank</t>
+          <t>Cole-Taylor</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>hH-099</t>
+          <t>sG-219</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>Return Some</t>
+          <t>Deep Rich</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>1936.99</v>
+        <v>9479.41</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>1412.01</v>
+        <v>7145.55</v>
       </c>
       <c r="F116" s="2" t="inlineStr">
         <is>
-          <t>Vega-Torres</t>
+          <t>Leonard-Norris</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>Fs-608</t>
+          <t>Xv-529</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>Heavy College</t>
+          <t>Gun Admit</t>
         </is>
       </c>
       <c r="C117" s="3" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D117" s="3" t="n">
-        <v>3709.77</v>
+        <v>5980.63</v>
       </c>
       <c r="E117" s="3" t="n">
-        <v>3219.45</v>
+        <v>4013.99</v>
       </c>
       <c r="F117" s="3" t="inlineStr">
         <is>
-          <t>Ross-Potts</t>
+          <t>Leonard-Norris</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>Yw-287</t>
+          <t>xx-786</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>Management Book</t>
+          <t>Onto Free</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>4510.42</v>
+        <v>6858.96</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>3928.67</v>
+        <v>5605.23</v>
       </c>
       <c r="F118" s="2" t="inlineStr">
         <is>
-          <t>York-Collins</t>
+          <t>Miller-Brown</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>eq-094</t>
+          <t>sD-382</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>School Ago</t>
+          <t>Factor Character</t>
         </is>
       </c>
       <c r="C119" s="3" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D119" s="3" t="n">
-        <v>12621.52</v>
+        <v>6583</v>
       </c>
       <c r="E119" s="3" t="n">
-        <v>9659.110000000001</v>
+        <v>5262.79</v>
       </c>
       <c r="F119" s="3" t="inlineStr">
         <is>
-          <t>Thomas-Walker</t>
+          <t>Carson Ltd</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>nM-723</t>
+          <t>qD-711</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>Student Moment</t>
+          <t>On Season</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>6980.51</v>
+        <v>7214.72</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>6009.25</v>
+        <v>5880.55</v>
       </c>
       <c r="F120" s="2" t="inlineStr">
         <is>
-          <t>Fleming, Chan and Frank</t>
+          <t>Cochran Inc</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>cj-768</t>
+          <t>EF-771</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
-          <t>Indicate Star</t>
+          <t>Officer Computer</t>
         </is>
       </c>
       <c r="C121" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D121" s="3" t="n">
-        <v>10892.43</v>
+        <v>5386.81</v>
       </c>
       <c r="E121" s="3" t="n">
-        <v>9181.459999999999</v>
+        <v>4422.6</v>
       </c>
       <c r="F121" s="3" t="inlineStr">
         <is>
-          <t>Wallace Ltd</t>
+          <t>Glenn-Cole</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>se-193</t>
+          <t>qY-297</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>Scientist Care</t>
+          <t>Develop Manage</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>5511.16</v>
+        <v>9577.549999999999</v>
       </c>
       <c r="E122" s="2" t="n">
-        <v>4837.28</v>
+        <v>8214.379999999999</v>
       </c>
       <c r="F122" s="2" t="inlineStr">
         <is>
-          <t>Williams-Clark</t>
+          <t>Moore-White</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>bH-405</t>
+          <t>ha-412</t>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>Forward Sometimes</t>
+          <t>Word Child</t>
         </is>
       </c>
       <c r="C123" s="3" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D123" s="3" t="n">
-        <v>11571.35</v>
+        <v>1655.25</v>
       </c>
       <c r="E123" s="3" t="n">
-        <v>9790.35</v>
+        <v>1402.72</v>
       </c>
       <c r="F123" s="3" t="inlineStr">
         <is>
-          <t>Jefferson LLC</t>
+          <t>Bailey, Larson and Hartman</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>Ls-308</t>
+          <t>RT-425</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>Only Same</t>
+          <t>Key Among</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>5919.67</v>
+        <v>5062.77</v>
       </c>
       <c r="E124" s="2" t="n">
-        <v>5248.08</v>
+        <v>3460.04</v>
       </c>
       <c r="F124" s="2" t="inlineStr">
         <is>
-          <t>Wagner-Lopez</t>
+          <t>Briggs, Hinton and Douglas</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="3" t="inlineStr">
         <is>
-          <t>Dz-077</t>
+          <t>GA-511</t>
         </is>
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t>Relationship Manage</t>
+          <t>Night Mother</t>
         </is>
       </c>
       <c r="C125" s="3" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D125" s="3" t="n">
-        <v>10415.33</v>
+        <v>7395.35</v>
       </c>
       <c r="E125" s="3" t="n">
-        <v>9182.860000000001</v>
+        <v>5830.58</v>
       </c>
       <c r="F125" s="3" t="inlineStr">
         <is>
-          <t>Brown-Taylor</t>
+          <t>Graham, Johnson and Green</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>Jg-642</t>
+          <t>gA-592</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>Beat Piece</t>
+          <t>Member Friend</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>9818.68</v>
+        <v>4190.23</v>
       </c>
       <c r="E126" s="2" t="n">
-        <v>7963.92</v>
+        <v>3408.05</v>
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>No Registrado</t>
+          <t>Hebert-Brooks</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="3" t="inlineStr">
         <is>
-          <t>lS-398</t>
+          <t>Kl-395</t>
         </is>
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t>Professional Forward</t>
+          <t>Activity Fight</t>
         </is>
       </c>
       <c r="C127" s="3" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="D127" s="3" t="n">
-        <v>2927.03</v>
+        <v>3603.48</v>
       </c>
       <c r="E127" s="3" t="n">
-        <v>2156.18</v>
+        <v>3011.44</v>
       </c>
       <c r="F127" s="3" t="inlineStr">
         <is>
-          <t>No Registrado</t>
+          <t>Garza Inc</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>xb-726</t>
+          <t>TE-662</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>Boy Center</t>
+          <t>Write Son</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>7429.42</v>
+        <v>11953.57</v>
       </c>
       <c r="E128" s="2" t="n">
-        <v>5719.37</v>
+        <v>9648.27</v>
       </c>
       <c r="F128" s="2" t="inlineStr">
         <is>
-          <t>Fowler, Collins and Reynolds</t>
+          <t>Harrell Ltd</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="3" t="inlineStr">
         <is>
-          <t>ur-974</t>
+          <t>Sl-468</t>
         </is>
       </c>
       <c r="B129" s="3" t="inlineStr">
         <is>
-          <t>But Him</t>
+          <t>Dinner Back</t>
         </is>
       </c>
       <c r="C129" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D129" s="3" t="n">
-        <v>10927.57</v>
+        <v>10606.35</v>
       </c>
       <c r="E129" s="3" t="n">
-        <v>8168.91</v>
+        <v>9034.93</v>
       </c>
       <c r="F129" s="3" t="inlineStr">
         <is>
-          <t>Wagner-Lopez</t>
+          <t>Green LLC</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>Yt-143</t>
+          <t>UN-062</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>Southern Ago</t>
+          <t>Such Need</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>7884.53</v>
+        <v>9819.02</v>
       </c>
       <c r="E130" s="2" t="n">
-        <v>6238.48</v>
+        <v>8015.78</v>
       </c>
       <c r="F130" s="2" t="inlineStr">
         <is>
-          <t>Carroll and Sons</t>
+          <t>Johnson, Brown and Jefferson</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>Rc-260</t>
+          <t>Ai-530</t>
         </is>
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>Mention Try</t>
+          <t>Rule Reveal</t>
         </is>
       </c>
       <c r="C131" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D131" s="3" t="n">
-        <v>6565.31</v>
+        <v>11937.68</v>
       </c>
       <c r="E131" s="3" t="n">
-        <v>5754.47</v>
+        <v>9527.15</v>
       </c>
       <c r="F131" s="3" t="inlineStr">
         <is>
-          <t>Ross-Potts</t>
+          <t>Barnes-Chung</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>pn-325</t>
+          <t>zJ-025</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>Analysis Color</t>
+          <t>Kitchen Car</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D132" s="2" t="n">
-        <v>5286.2</v>
+        <v>10322.68</v>
       </c>
       <c r="E132" s="2" t="n">
-        <v>3637.66</v>
+        <v>8194.24</v>
       </c>
       <c r="F132" s="2" t="inlineStr">
         <is>
-          <t>Howe, Leonard and Robertson</t>
+          <t>Cruz, Moreno and Henderson</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>wa-634</t>
+          <t>xr-526</t>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>Doctor Whether</t>
+          <t>I Listen</t>
         </is>
       </c>
       <c r="C133" s="3" t="n">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="D133" s="3" t="n">
-        <v>9788.93</v>
+        <v>1573.36</v>
       </c>
       <c r="E133" s="3" t="n">
-        <v>8441.639999999999</v>
+        <v>1356.41</v>
       </c>
       <c r="F133" s="3" t="inlineStr">
         <is>
-          <t>Thompson Ltd</t>
+          <t>Ross-Potts</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>OL-704</t>
+          <t>zG-986</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>Meet Plan</t>
+          <t>Surface Might</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>6679</v>
+        <v>2554.44</v>
       </c>
       <c r="E134" s="2" t="n">
-        <v>5491.01</v>
+        <v>2223.44</v>
       </c>
       <c r="F134" s="2" t="inlineStr">
         <is>
-          <t>No Registrado</t>
+          <t>Bennett LLC</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>Vr-906</t>
+          <t>yN-905</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>Production Speak</t>
+          <t>Director Group</t>
         </is>
       </c>
       <c r="C135" s="3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D135" s="3" t="n">
-        <v>4970.22</v>
+        <v>3796.33</v>
       </c>
       <c r="E135" s="3" t="n">
-        <v>4281.38</v>
+        <v>3412.2</v>
       </c>
       <c r="F135" s="3" t="inlineStr">
         <is>
-          <t>Gordon, Diaz and Smith</t>
+          <t>Wallace Ltd</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>HJ-298</t>
+          <t>NS-125</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>Example Between</t>
+          <t>Indicate A</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>11605.31</v>
+        <v>12725.25</v>
       </c>
       <c r="E136" s="2" t="n">
-        <v>9567.309999999999</v>
+        <v>8812.190000000001</v>
       </c>
       <c r="F136" s="2" t="inlineStr">
         <is>
-          <t>Flowers-Williams</t>
+          <t>Meyer-Palmer</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>OZ-177</t>
+          <t>rm-996</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>Movement Statement</t>
+          <t>Do Surface</t>
         </is>
       </c>
       <c r="C137" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D137" s="3" t="n">
-        <v>2421.89</v>
+        <v>7764.36</v>
       </c>
       <c r="E137" s="3" t="n">
-        <v>1918.46</v>
+        <v>6269.05</v>
       </c>
       <c r="F137" s="3" t="inlineStr">
         <is>
-          <t>Williams, Gallegos and Booth</t>
+          <t>Vargas-Thompson</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>rv-359</t>
+          <t>HJ-108</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>Provide Single</t>
+          <t>Theory Present</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>3638.65</v>
+        <v>11905.64</v>
       </c>
       <c r="E138" s="2" t="n">
-        <v>3078.8</v>
+        <v>8485.32</v>
       </c>
       <c r="F138" s="2" t="inlineStr">
         <is>
-          <t>Thomas-Walker</t>
+          <t>Tanner, Stein and Miller</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>Gf-239</t>
+          <t>wQ-256</t>
         </is>
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>Republican Prepare</t>
+          <t>History Set</t>
         </is>
       </c>
       <c r="C139" s="3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D139" s="3" t="n">
-        <v>7933.59</v>
+        <v>3378.01</v>
       </c>
       <c r="E139" s="3" t="n">
-        <v>6821.28</v>
+        <v>2506.6</v>
       </c>
       <c r="F139" s="3" t="inlineStr">
         <is>
-          <t>Harrison Ltd</t>
+          <t>Walker-Adams</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>Yp-280</t>
+          <t>LH-607</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>Bill True</t>
+          <t>Probably Under</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>4136.8</v>
+        <v>6665.63</v>
       </c>
       <c r="E140" s="2" t="n">
-        <v>3463.41</v>
+        <v>4825.91</v>
       </c>
       <c r="F140" s="2" t="inlineStr">
         <is>
-          <t>Hill and Sons</t>
+          <t>Bowers-Jarvis</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>Ap-509</t>
+          <t>qn-979</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
         <is>
-          <t>Name Crime</t>
+          <t>The Goal</t>
         </is>
       </c>
       <c r="C141" s="3" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D141" s="3" t="n">
-        <v>1446.27</v>
+        <v>4988.24</v>
       </c>
       <c r="E141" s="3" t="n">
-        <v>1167.53</v>
+        <v>3367.05</v>
       </c>
       <c r="F141" s="3" t="inlineStr">
         <is>
-          <t>Fry-Perry</t>
+          <t>Baker, Smith and Ray</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>KD-650</t>
+          <t>Cx-416</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>Total Fight</t>
+          <t>Same Star</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>5749.1</v>
+        <v>6893.19</v>
       </c>
       <c r="E142" s="2" t="n">
-        <v>4827.61</v>
+        <v>4939.02</v>
       </c>
       <c r="F142" s="2" t="inlineStr">
         <is>
-          <t>Thompson PLC</t>
+          <t>Thompson Ltd</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="3" t="inlineStr">
         <is>
-          <t>NP-738</t>
+          <t>eZ-192</t>
         </is>
       </c>
       <c r="B143" s="3" t="inlineStr">
         <is>
-          <t>Some Find</t>
+          <t>Capital Ready</t>
         </is>
       </c>
       <c r="C143" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D143" s="3" t="n">
-        <v>8604.879999999999</v>
+        <v>12030.67</v>
       </c>
       <c r="E143" s="3" t="n">
-        <v>6675.68</v>
+        <v>8809.4</v>
       </c>
       <c r="F143" s="3" t="inlineStr">
         <is>
-          <t>Hull-Hudson</t>
+          <t>Nichols, Hamilton and Romero</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>Ww-506</t>
+          <t>AN-761</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>Measure Movement</t>
+          <t>Everyone Cell</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>11582.21</v>
+        <v>1956.45</v>
       </c>
       <c r="E144" s="2" t="n">
-        <v>7763.43</v>
+        <v>1521.05</v>
       </c>
       <c r="F144" s="2" t="inlineStr">
         <is>
-          <t>Turner Group</t>
+          <t>Hebert-Brooks</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="3" t="inlineStr">
         <is>
-          <t>Mj-220</t>
+          <t>mW-349</t>
         </is>
       </c>
       <c r="B145" s="3" t="inlineStr">
         <is>
-          <t>Enough Town</t>
+          <t>Year Individual</t>
         </is>
       </c>
       <c r="C145" s="3" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D145" s="3" t="n">
-        <v>1966.24</v>
+        <v>4735.01</v>
       </c>
       <c r="E145" s="3" t="n">
-        <v>1469.11</v>
+        <v>4199.05</v>
       </c>
       <c r="F145" s="3" t="inlineStr">
         <is>
-          <t>No Registrado</t>
+          <t>Moore-White</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>mi-272</t>
+          <t>CV-005</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>Teacher Page</t>
+          <t>Explain Various</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>6306.94</v>
+        <v>11682.32</v>
       </c>
       <c r="E146" s="2" t="n">
-        <v>4745.06</v>
+        <v>9059.110000000001</v>
       </c>
       <c r="F146" s="2" t="inlineStr">
         <is>
-          <t>No Registrado</t>
+          <t>Harrell Ltd</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="3" t="inlineStr">
         <is>
-          <t>Bt-990</t>
+          <t>ST-959</t>
         </is>
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>Product Soldier</t>
+          <t>Per Probably</t>
         </is>
       </c>
       <c r="C147" s="3" t="n">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D147" s="3" t="n">
-        <v>5901.55</v>
+        <v>1951.63</v>
       </c>
       <c r="E147" s="3" t="n">
-        <v>4703.46</v>
+        <v>1379.14</v>
       </c>
       <c r="F147" s="3" t="inlineStr">
         <is>
-          <t>Cochran Inc</t>
+          <t>Richardson Inc</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>Xp-591</t>
+          <t>fS-093</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>Fact Appear</t>
+          <t>Pick Child</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>3565.18</v>
+        <v>7932.15</v>
       </c>
       <c r="E148" s="2" t="n">
-        <v>3080.73</v>
+        <v>6661.44</v>
       </c>
       <c r="F148" s="2" t="inlineStr">
         <is>
-          <t>No Registrado</t>
+          <t>Carson Ltd</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="3" t="inlineStr">
         <is>
-          <t>kA-378</t>
+          <t>Nw-238</t>
         </is>
       </c>
       <c r="B149" s="3" t="inlineStr">
         <is>
-          <t>Key Off</t>
+          <t>Lawyer Real</t>
         </is>
       </c>
       <c r="C149" s="3" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D149" s="3" t="n">
-        <v>9965.280000000001</v>
+        <v>8704.040000000001</v>
       </c>
       <c r="E149" s="3" t="n">
-        <v>7722.52</v>
+        <v>7129.99</v>
       </c>
       <c r="F149" s="3" t="inlineStr">
         <is>
-          <t>No Registrado</t>
+          <t>Wilkins PLC</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>cb-755</t>
+          <t>VE-949</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>Billion Spring</t>
+          <t>Appear Today</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>4800.38</v>
+        <v>10319.93</v>
       </c>
       <c r="E150" s="2" t="n">
-        <v>4048.76</v>
+        <v>7583.4</v>
       </c>
       <c r="F150" s="2" t="inlineStr">
         <is>
-          <t>Miller-Brown</t>
+          <t>Jarvis Group</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="3" t="inlineStr">
         <is>
-          <t>Mr-970</t>
+          <t>Ys-331</t>
         </is>
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t>About Level</t>
+          <t>Girl Read</t>
         </is>
       </c>
       <c r="C151" s="3" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D151" s="3" t="n">
-        <v>4742.06</v>
+        <v>3843.48</v>
       </c>
       <c r="E151" s="3" t="n">
-        <v>3296.26</v>
+        <v>2590.16</v>
       </c>
       <c r="F151" s="3" t="inlineStr">
         <is>
-          <t>Wilkins PLC</t>
+          <t>Hebert-Brooks</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>Ze-090</t>
+          <t>dI-620</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>Last Purpose</t>
+          <t>Away Whole</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>8279.360000000001</v>
+        <v>7062.77</v>
       </c>
       <c r="E152" s="2" t="n">
-        <v>5534.85</v>
+        <v>6001.22</v>
       </c>
       <c r="F152" s="2" t="inlineStr">
         <is>
-          <t>Thomas-Garcia</t>
+          <t>Perry, Johnson and Pearson</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="3" t="inlineStr">
         <is>
-          <t>kR-800</t>
+          <t>ON-457</t>
         </is>
       </c>
       <c r="B153" s="3" t="inlineStr">
         <is>
-          <t>Behind Job</t>
+          <t>Week Reach</t>
         </is>
       </c>
       <c r="C153" s="3" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D153" s="3" t="n">
-        <v>9763.110000000001</v>
+        <v>7083.49</v>
       </c>
       <c r="E153" s="3" t="n">
-        <v>8384.74</v>
+        <v>6321.18</v>
       </c>
       <c r="F153" s="3" t="inlineStr">
         <is>
-          <t>Young-Warner</t>
+          <t>Davenport, Sharp and Duran</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>Ux-355</t>
+          <t>sK-815</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>Suggest Nature</t>
+          <t>Figure Program</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D154" s="2" t="n">
-        <v>1908.91</v>
+        <v>1176.14</v>
       </c>
       <c r="E154" s="2" t="n">
-        <v>1469.45</v>
+        <v>1004.61</v>
       </c>
       <c r="F154" s="2" t="inlineStr">
         <is>
-          <t>West Inc</t>
+          <t>Gonzales and Sons</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="3" t="inlineStr">
         <is>
-          <t>DG-933</t>
+          <t>Mg-164</t>
         </is>
       </c>
       <c r="B155" s="3" t="inlineStr">
         <is>
-          <t>Material Ten</t>
+          <t>Idea Young</t>
         </is>
       </c>
       <c r="C155" s="3" t="n">
         <v>3</v>
       </c>
       <c r="D155" s="3" t="n">
-        <v>9160.9</v>
+        <v>7218.7</v>
       </c>
       <c r="E155" s="3" t="n">
-        <v>8028.37</v>
+        <v>6260.9</v>
       </c>
       <c r="F155" s="3" t="inlineStr">
         <is>
-          <t>Nguyen, Knight and Spears</t>
+          <t>Wallace Ltd</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>rv-295</t>
+          <t>Zh-969</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>Laugh Should</t>
+          <t>Buy Land</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>4468.59</v>
+        <v>3693.35</v>
       </c>
       <c r="E156" s="2" t="n">
-        <v>3407.52</v>
+        <v>2564.35</v>
       </c>
       <c r="F156" s="2" t="inlineStr">
         <is>
-          <t>No Registrado</t>
+          <t>Hamilton, Lee and Delacruz</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="3" t="inlineStr">
         <is>
-          <t>pg-927</t>
+          <t>kj-346</t>
         </is>
       </c>
       <c r="B157" s="3" t="inlineStr">
         <is>
-          <t>Central Receive</t>
+          <t>Card Event</t>
         </is>
       </c>
       <c r="C157" s="3" t="n">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="D157" s="3" t="n">
-        <v>1602.76</v>
+        <v>3939.32</v>
       </c>
       <c r="E157" s="3" t="n">
-        <v>1072.31</v>
+        <v>3183.43</v>
       </c>
       <c r="F157" s="3" t="inlineStr">
         <is>
-          <t>Carson Ltd</t>
+          <t>Sims LLC</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>BU-777</t>
+          <t>mG-200</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>Through Final</t>
+          <t>Environmental Kind</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>2592.76</v>
+        <v>2915.59</v>
       </c>
       <c r="E158" s="2" t="n">
-        <v>2080.47</v>
+        <v>2417.58</v>
       </c>
       <c r="F158" s="2" t="inlineStr">
         <is>
-          <t>No Registrado</t>
+          <t>Cochran Inc</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>Ty-283</t>
+          <t>rT-093</t>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
         <is>
-          <t>Guy Catch</t>
+          <t>See Find</t>
         </is>
       </c>
       <c r="C159" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D159" s="3" t="n">
-        <v>4635.98</v>
+        <v>9910.360000000001</v>
       </c>
       <c r="E159" s="3" t="n">
-        <v>3147.03</v>
+        <v>6817.89</v>
       </c>
       <c r="F159" s="3" t="inlineStr">
         <is>
-          <t>Vega-Torres</t>
+          <t>Hill LLC</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>Wf-711</t>
+          <t>FZ-875</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>Involve Expect</t>
+          <t>Process Suggest</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>9040.360000000001</v>
+        <v>10158.61</v>
       </c>
       <c r="E160" s="2" t="n">
-        <v>7889.22</v>
+        <v>6850.11</v>
       </c>
       <c r="F160" s="2" t="inlineStr">
         <is>
-          <t>Fleming, Chan and Frank</t>
+          <t>Johnson-Smith</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>an-504</t>
+          <t>ju-580</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
         <is>
-          <t>Young Newspaper</t>
+          <t>Race Security</t>
         </is>
       </c>
       <c r="C161" s="3" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D161" s="3" t="n">
-        <v>1155.11</v>
+        <v>10281.57</v>
       </c>
       <c r="E161" s="3" t="n">
-        <v>1003.18</v>
+        <v>7143.22</v>
       </c>
       <c r="F161" s="3" t="inlineStr">
         <is>
-          <t>Brock-Greene</t>
+          <t>Walker-Adams</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>mJ-528</t>
+          <t>OG-124</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>Thus Thus</t>
+          <t>Work Best</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D162" s="2" t="n">
-        <v>11837.58</v>
+        <v>1441.22</v>
       </c>
       <c r="E162" s="2" t="n">
-        <v>9065.33</v>
+        <v>1184.68</v>
       </c>
       <c r="F162" s="2" t="inlineStr">
         <is>
-          <t>Turner Group</t>
+          <t>Webb-Pacheco</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="3" t="inlineStr">
         <is>
-          <t>ya-932</t>
+          <t>RO-307</t>
         </is>
       </c>
       <c r="B163" s="3" t="inlineStr">
         <is>
-          <t>Significant Ever</t>
+          <t>Skin Ever</t>
         </is>
       </c>
       <c r="C163" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D163" s="3" t="n">
-        <v>4671.28</v>
+        <v>12073.88</v>
       </c>
       <c r="E163" s="3" t="n">
-        <v>3657.51</v>
+        <v>8874.76</v>
       </c>
       <c r="F163" s="3" t="inlineStr">
         <is>
-          <t>Gordon, Diaz and Smith</t>
+          <t>Tanner, Stein and Miller</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>vw-739</t>
+          <t>FT-661</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>Clear Under</t>
+          <t>International Occur</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D164" s="2" t="n">
-        <v>10926.16</v>
+        <v>13728.69</v>
       </c>
       <c r="E164" s="2" t="n">
-        <v>7467.82</v>
+        <v>9903.950000000001</v>
       </c>
       <c r="F164" s="2" t="inlineStr">
         <is>
-          <t>Obrien, Mitchell and Scott</t>
+          <t>Walker-Adams</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="3" t="inlineStr">
         <is>
-          <t>cL-199</t>
+          <t>sE-535</t>
         </is>
       </c>
       <c r="B165" s="3" t="inlineStr">
         <is>
-          <t>Attack Street</t>
+          <t>Order Center</t>
         </is>
       </c>
       <c r="C165" s="3" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D165" s="3" t="n">
-        <v>2894.34</v>
+        <v>8180.12</v>
       </c>
       <c r="E165" s="3" t="n">
-        <v>2450.12</v>
+        <v>6703.93</v>
       </c>
       <c r="F165" s="3" t="inlineStr">
         <is>
-          <t>Carter-Bell</t>
+          <t>Pierce, Smith and Garcia</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>VZ-224</t>
+          <t>oF-295</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>Structure Visit</t>
+          <t>Central Identify</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D166" s="2" t="n">
-        <v>9628.23</v>
+        <v>2819.43</v>
       </c>
       <c r="E166" s="2" t="n">
-        <v>7448.63</v>
+        <v>1912.41</v>
       </c>
       <c r="F166" s="2" t="inlineStr">
         <is>
-          <t>Gordon, Diaz and Smith</t>
+          <t>Pierce, Smith and Garcia</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="3" t="inlineStr">
         <is>
-          <t>Gc-453</t>
+          <t>dx-317</t>
         </is>
       </c>
       <c r="B167" s="3" t="inlineStr">
         <is>
-          <t>Compare Respond</t>
+          <t>Newspaper Option</t>
         </is>
       </c>
       <c r="C167" s="3" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D167" s="3" t="n">
-        <v>11908.53</v>
+        <v>7475.91</v>
       </c>
       <c r="E167" s="3" t="n">
-        <v>8755.690000000001</v>
+        <v>5188.01</v>
       </c>
       <c r="F167" s="3" t="inlineStr">
         <is>
-          <t>Johnson-Smith</t>
+          <t>Jefferson LLC</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>yJ-945</t>
+          <t>Ig-847</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>Certain Wife</t>
+          <t>Stand Citizen</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D168" s="2" t="n">
-        <v>4752.28</v>
+        <v>4893.69</v>
       </c>
       <c r="E168" s="2" t="n">
-        <v>3361.96</v>
+        <v>4300.5</v>
       </c>
       <c r="F168" s="2" t="inlineStr">
         <is>
-          <t>York-Collins</t>
+          <t>Bowers-Jarvis</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="3" t="inlineStr">
         <is>
-          <t>Vo-291</t>
+          <t>BN-826</t>
         </is>
       </c>
       <c r="B169" s="3" t="inlineStr">
         <is>
-          <t>Line Series</t>
+          <t>Page Forget</t>
         </is>
       </c>
       <c r="C169" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D169" s="3" t="n">
-        <v>3934.48</v>
+        <v>12269.66</v>
       </c>
       <c r="E169" s="3" t="n">
-        <v>2778.29</v>
+        <v>9242.190000000001</v>
       </c>
       <c r="F169" s="3" t="inlineStr">
         <is>
-          <t>Williams, Gallegos and Booth</t>
+          <t>Johnson, Brown and Jefferson</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>OL-267</t>
+          <t>Rg-079</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>Performance Rich</t>
+          <t>Tell Budget</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D170" s="2" t="n">
-        <v>5895.19</v>
+        <v>10310.29</v>
       </c>
       <c r="E170" s="2" t="n">
-        <v>5016.29</v>
+        <v>8575.09</v>
       </c>
       <c r="F170" s="2" t="inlineStr">
         <is>
-          <t>Torres-Morgan</t>
+          <t>Lopez, Charles and West</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="3" t="inlineStr">
         <is>
-          <t>Yu-854</t>
+          <t>Iw-518</t>
         </is>
       </c>
       <c r="B171" s="3" t="inlineStr">
         <is>
-          <t>Will Available</t>
+          <t>Image Care</t>
         </is>
       </c>
       <c r="C171" s="3" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D171" s="3" t="n">
-        <v>5799.41</v>
+        <v>5488.6</v>
       </c>
       <c r="E171" s="3" t="n">
-        <v>4207.89</v>
+        <v>4136.7</v>
       </c>
       <c r="F171" s="3" t="inlineStr">
         <is>
-          <t>Poole-Kent</t>
+          <t>Watts Ltd</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>Jl-943</t>
+          <t>Qh-667</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>Light Group</t>
+          <t>And Win</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="D172" s="2" t="n">
-        <v>3872.96</v>
+        <v>12276.72</v>
       </c>
       <c r="E172" s="2" t="n">
-        <v>2987.5</v>
+        <v>8937.040000000001</v>
       </c>
       <c r="F172" s="2" t="inlineStr">
         <is>
-          <t>Hendricks, Anderson and Hart</t>
+          <t>King, Zuniga and Robinson</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="3" t="inlineStr">
         <is>
-          <t>sx-699</t>
+          <t>ML-688</t>
         </is>
       </c>
       <c r="B173" s="3" t="inlineStr">
         <is>
-          <t>Television Vote</t>
+          <t>Eye Now</t>
         </is>
       </c>
       <c r="C173" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D173" s="3" t="n">
-        <v>9147.610000000001</v>
+        <v>6471.77</v>
       </c>
       <c r="E173" s="3" t="n">
-        <v>6172.33</v>
+        <v>5322.84</v>
       </c>
       <c r="F173" s="3" t="inlineStr">
         <is>
-          <t>Thompson PLC</t>
+          <t>Mcpherson-Clark</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>aK-761</t>
+          <t>sN-085</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>Pressure Serve</t>
+          <t>Agency Water</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D174" s="2" t="n">
-        <v>7245.74</v>
+        <v>8922.190000000001</v>
       </c>
       <c r="E174" s="2" t="n">
-        <v>4949.01</v>
+        <v>7092.35</v>
       </c>
       <c r="F174" s="2" t="inlineStr">
         <is>
-          <t>Hull-Hudson</t>
+          <t>Ray, Oliver and Martinez</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="3" t="inlineStr">
         <is>
-          <t>gO-391</t>
+          <t>In-129</t>
         </is>
       </c>
       <c r="B175" s="3" t="inlineStr">
         <is>
-          <t>Clearly Full</t>
+          <t>Debate Significant</t>
         </is>
       </c>
       <c r="C175" s="3" t="n">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D175" s="3" t="n">
-        <v>5280.8</v>
+        <v>4683.27</v>
       </c>
       <c r="E175" s="3" t="n">
-        <v>4131.89</v>
+        <v>3642.66</v>
       </c>
       <c r="F175" s="3" t="inlineStr">
         <is>
-          <t>No Registrado</t>
+          <t>Johnston-Duncan</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>Ha-727</t>
+          <t>Xv-001</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>Work Ask</t>
+          <t>Move Hit</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D176" s="2" t="n">
-        <v>11369</v>
+        <v>5177.03</v>
       </c>
       <c r="E176" s="2" t="n">
-        <v>9992.799999999999</v>
+        <v>3867.24</v>
       </c>
       <c r="F176" s="2" t="inlineStr">
         <is>
@@ -5032,260 +5032,650 @@
     <row r="177">
       <c r="A177" s="3" t="inlineStr">
         <is>
-          <t>Qs-917</t>
+          <t>Fw-879</t>
         </is>
       </c>
       <c r="B177" s="3" t="inlineStr">
         <is>
-          <t>Be Ask</t>
+          <t>Toward Condition</t>
         </is>
       </c>
       <c r="C177" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D177" s="3" t="n">
-        <v>4844.03</v>
+        <v>7786.52</v>
       </c>
       <c r="E177" s="3" t="n">
-        <v>3283.85</v>
+        <v>6498.64</v>
       </c>
       <c r="F177" s="3" t="inlineStr">
         <is>
-          <t>Smith PLC</t>
+          <t>Graham, Johnson and Green</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>je-182</t>
+          <t>Kt-262</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>Expert Learn</t>
+          <t>Sea Garden</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D178" s="2" t="n">
-        <v>10899.26</v>
+        <v>8332.43</v>
       </c>
       <c r="E178" s="2" t="n">
-        <v>9555.93</v>
+        <v>7398.9</v>
       </c>
       <c r="F178" s="2" t="inlineStr">
         <is>
-          <t>West Inc</t>
+          <t>Watts Ltd</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="3" t="inlineStr">
         <is>
-          <t>OJ-190</t>
+          <t>wa-741</t>
         </is>
       </c>
       <c r="B179" s="3" t="inlineStr">
         <is>
-          <t>Focus Arrive</t>
+          <t>Entire But</t>
         </is>
       </c>
       <c r="C179" s="3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D179" s="3" t="n">
-        <v>6281.35</v>
+        <v>3704.75</v>
       </c>
       <c r="E179" s="3" t="n">
-        <v>5202.92</v>
+        <v>2685.87</v>
       </c>
       <c r="F179" s="3" t="inlineStr">
         <is>
-          <t>Charles, Sanchez and Malone</t>
+          <t>Leon-Mcdaniel</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>RN-494</t>
+          <t>ma-099</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>Right Article</t>
+          <t>Pretty Bring</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D180" s="2" t="n">
-        <v>11102.57</v>
+        <v>10434.19</v>
       </c>
       <c r="E180" s="2" t="n">
-        <v>9191.530000000001</v>
+        <v>7961.69</v>
       </c>
       <c r="F180" s="2" t="inlineStr">
         <is>
-          <t>Wagner-Lopez</t>
+          <t>Lopez LLC</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>gq-437</t>
+          <t>SA-478</t>
         </is>
       </c>
       <c r="B181" s="3" t="inlineStr">
         <is>
-          <t>Difficult Decision</t>
+          <t>Realize Officer</t>
         </is>
       </c>
       <c r="C181" s="3" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D181" s="3" t="n">
-        <v>5621.04</v>
+        <v>10663.13</v>
       </c>
       <c r="E181" s="3" t="n">
-        <v>4733.5</v>
+        <v>7112.48</v>
       </c>
       <c r="F181" s="3" t="inlineStr">
         <is>
-          <t>Delgado, Garcia and Henderson</t>
+          <t>Shaffer, Horton and Jones</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>Ik-367</t>
+          <t>dF-582</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>Quality Ever</t>
+          <t>Air And</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D182" s="2" t="n">
-        <v>5125.03</v>
+        <v>13794.62</v>
       </c>
       <c r="E182" s="2" t="n">
-        <v>3805.3</v>
+        <v>9443.34</v>
       </c>
       <c r="F182" s="2" t="inlineStr">
         <is>
-          <t>Glenn-Cole</t>
+          <t>Moore Group</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="3" t="inlineStr">
         <is>
-          <t>KJ-464</t>
+          <t>me-816</t>
         </is>
       </c>
       <c r="B183" s="3" t="inlineStr">
         <is>
-          <t>Talk Low</t>
+          <t>Performance Person</t>
         </is>
       </c>
       <c r="C183" s="3" t="n">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D183" s="3" t="n">
-        <v>2493.07</v>
+        <v>4148.26</v>
       </c>
       <c r="E183" s="3" t="n">
-        <v>2032.48</v>
+        <v>2903.76</v>
       </c>
       <c r="F183" s="3" t="inlineStr">
         <is>
-          <t>Young-Warner</t>
+          <t>Smith PLC</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>VX-263</t>
+          <t>MS-985</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>That Already</t>
+          <t>Door This</t>
         </is>
       </c>
       <c r="C184" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D184" s="2" t="n">
-        <v>5283.31</v>
+        <v>10728.63</v>
       </c>
       <c r="E184" s="2" t="n">
-        <v>3721.63</v>
+        <v>8452.15</v>
       </c>
       <c r="F184" s="2" t="inlineStr">
         <is>
-          <t>No Registrado</t>
+          <t>Garcia Group</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="3" t="inlineStr">
         <is>
-          <t>xm-835</t>
+          <t>kd-067</t>
         </is>
       </c>
       <c r="B185" s="3" t="inlineStr">
         <is>
-          <t>With Try</t>
+          <t>Than Letter</t>
         </is>
       </c>
       <c r="C185" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D185" s="3" t="n">
-        <v>8901.549999999999</v>
+        <v>11691.61</v>
       </c>
       <c r="E185" s="3" t="n">
-        <v>6799.59</v>
+        <v>8631.68</v>
       </c>
       <c r="F185" s="3" t="inlineStr">
         <is>
-          <t>Powell-Lowery</t>
+          <t>Brown-Wolf</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>Eo-705</t>
+          <t>DD-747</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>Seat Parent</t>
+          <t>Center Glass</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D186" s="2" t="n">
-        <v>10143.94</v>
+        <v>8408.219999999999</v>
       </c>
       <c r="E186" s="2" t="n">
-        <v>7903.21</v>
+        <v>5663.27</v>
       </c>
       <c r="F186" s="2" t="inlineStr">
         <is>
-          <t>Poole-Kent</t>
+          <t>Gordon, Diaz and Smith</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="3" t="inlineStr">
+        <is>
+          <t>hL-673</t>
+        </is>
+      </c>
+      <c r="B187" s="3" t="inlineStr">
+        <is>
+          <t>Parent Design</t>
+        </is>
+      </c>
+      <c r="C187" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D187" s="3" t="n">
+        <v>6205.69</v>
+      </c>
+      <c r="E187" s="3" t="n">
+        <v>4574.89</v>
+      </c>
+      <c r="F187" s="3" t="inlineStr">
+        <is>
+          <t>King-Cannon</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="inlineStr">
+        <is>
+          <t>VF-691</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="inlineStr">
+        <is>
+          <t>Without Series</t>
+        </is>
+      </c>
+      <c r="C188" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D188" s="2" t="n">
+        <v>9550.780000000001</v>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>8292.389999999999</v>
+      </c>
+      <c r="F188" s="2" t="inlineStr">
+        <is>
+          <t>Thompson PLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="3" t="inlineStr">
+        <is>
+          <t>Br-021</t>
+        </is>
+      </c>
+      <c r="B189" s="3" t="inlineStr">
+        <is>
+          <t>Seven Tree</t>
+        </is>
+      </c>
+      <c r="C189" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D189" s="3" t="n">
+        <v>9134.82</v>
+      </c>
+      <c r="E189" s="3" t="n">
+        <v>6235.04</v>
+      </c>
+      <c r="F189" s="3" t="inlineStr">
+        <is>
+          <t>Glenn-Cole</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="inlineStr">
+        <is>
+          <t>fY-774</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="inlineStr">
+        <is>
+          <t>Eight Institution</t>
+        </is>
+      </c>
+      <c r="C190" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D190" s="2" t="n">
+        <v>4541.32</v>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>3701.25</v>
+      </c>
+      <c r="F190" s="2" t="inlineStr">
+        <is>
+          <t>Lopez LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="3" t="inlineStr">
+        <is>
+          <t>vq-732</t>
+        </is>
+      </c>
+      <c r="B191" s="3" t="inlineStr">
+        <is>
+          <t>Hospital Nice</t>
+        </is>
+      </c>
+      <c r="C191" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D191" s="3" t="n">
+        <v>4669.43</v>
+      </c>
+      <c r="E191" s="3" t="n">
+        <v>4061.2</v>
+      </c>
+      <c r="F191" s="3" t="inlineStr">
+        <is>
+          <t>Williams, Gallegos and Booth</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="inlineStr">
+        <is>
+          <t>YJ-276</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="inlineStr">
+        <is>
+          <t>They Task</t>
+        </is>
+      </c>
+      <c r="C192" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D192" s="2" t="n">
+        <v>5281.42</v>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>3563.71</v>
+      </c>
+      <c r="F192" s="2" t="inlineStr">
+        <is>
+          <t>Miller-Brown</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="3" t="inlineStr">
+        <is>
+          <t>Fi-552</t>
+        </is>
+      </c>
+      <c r="B193" s="3" t="inlineStr">
+        <is>
+          <t>Pass Stock</t>
+        </is>
+      </c>
+      <c r="C193" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="D193" s="3" t="n">
+        <v>5183.61</v>
+      </c>
+      <c r="E193" s="3" t="n">
+        <v>4417.65</v>
+      </c>
+      <c r="F193" s="3" t="inlineStr">
+        <is>
+          <t>Torres-Morgan</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="inlineStr">
+        <is>
+          <t>xQ-351</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="inlineStr">
+        <is>
+          <t>Daughter Leave</t>
+        </is>
+      </c>
+      <c r="C194" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D194" s="2" t="n">
+        <v>10144.48</v>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>7171.24</v>
+      </c>
+      <c r="F194" s="2" t="inlineStr">
+        <is>
+          <t>Johnson, Brown and Jefferson</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="3" t="inlineStr">
+        <is>
+          <t>ls-010</t>
+        </is>
+      </c>
+      <c r="B195" s="3" t="inlineStr">
+        <is>
+          <t>Lot Job</t>
+        </is>
+      </c>
+      <c r="C195" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="D195" s="3" t="n">
+        <v>4573.68</v>
+      </c>
+      <c r="E195" s="3" t="n">
+        <v>3280.36</v>
+      </c>
+      <c r="F195" s="3" t="inlineStr">
+        <is>
+          <t>King-Cannon</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="inlineStr">
+        <is>
+          <t>Xn-958</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="inlineStr">
+        <is>
+          <t>From Result</t>
+        </is>
+      </c>
+      <c r="C196" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D196" s="2" t="n">
+        <v>4310.25</v>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>3884.65</v>
+      </c>
+      <c r="F196" s="2" t="inlineStr">
+        <is>
+          <t>Beltran Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="3" t="inlineStr">
+        <is>
+          <t>OJ-068</t>
+        </is>
+      </c>
+      <c r="B197" s="3" t="inlineStr">
+        <is>
+          <t>Fear Hit</t>
+        </is>
+      </c>
+      <c r="C197" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D197" s="3" t="n">
+        <v>4282.2</v>
+      </c>
+      <c r="E197" s="3" t="n">
+        <v>3020.24</v>
+      </c>
+      <c r="F197" s="3" t="inlineStr">
+        <is>
+          <t>Glenn-Cole</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="inlineStr">
+        <is>
+          <t>uC-203</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="inlineStr">
+        <is>
+          <t>Manage Drop</t>
+        </is>
+      </c>
+      <c r="C198" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D198" s="2" t="n">
+        <v>11035.67</v>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>8789.610000000001</v>
+      </c>
+      <c r="F198" s="2" t="inlineStr">
+        <is>
+          <t>Watts Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="3" t="inlineStr">
+        <is>
+          <t>Np-406</t>
+        </is>
+      </c>
+      <c r="B199" s="3" t="inlineStr">
+        <is>
+          <t>Town Maintain</t>
+        </is>
+      </c>
+      <c r="C199" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D199" s="3" t="n">
+        <v>4334.51</v>
+      </c>
+      <c r="E199" s="3" t="n">
+        <v>3336.91</v>
+      </c>
+      <c r="F199" s="3" t="inlineStr">
+        <is>
+          <t>Hebert-Brooks</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="inlineStr">
+        <is>
+          <t>jU-068</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="inlineStr">
+        <is>
+          <t>Measure Radio</t>
+        </is>
+      </c>
+      <c r="C200" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D200" s="2" t="n">
+        <v>2799.66</v>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>2325.4</v>
+      </c>
+      <c r="F200" s="2" t="inlineStr">
+        <is>
+          <t>Estrada-Lewis</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="3" t="inlineStr">
+        <is>
+          <t>kt-021</t>
+        </is>
+      </c>
+      <c r="B201" s="3" t="inlineStr">
+        <is>
+          <t>Month Pressure</t>
+        </is>
+      </c>
+      <c r="C201" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D201" s="3" t="n">
+        <v>2514.78</v>
+      </c>
+      <c r="E201" s="3" t="n">
+        <v>2255.83</v>
+      </c>
+      <c r="F201" s="3" t="inlineStr">
+        <is>
+          <t>Castro-Stephens</t>
         </is>
       </c>
     </row>

--- a/formularios/inventario.xlsx
+++ b/formularios/inventario.xlsx
@@ -440,11 +440,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="21" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="17" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="35" customWidth="1" min="6" max="6"/>
+    <col width="33" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -482,5200 +482,5200 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>gJ-951</t>
+          <t>Tf-986</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Past Artist</t>
+          <t>Should Phone</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2345.23</v>
+        <v>3225.26</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2077.97</v>
+        <v>2675.87</v>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>Snyder-Lewis</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>HQ-858</t>
+          <t>fN-672</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Form Long</t>
+          <t>Other Her</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>6888.52</v>
+        <v>6162.71</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>4823.24</v>
+        <v>4663.07</v>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>Morse, Chavez and Montgomery</t>
+          <t>Wilson-Bernard</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>vF-331</t>
+          <t>zO-606</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>So Avoid</t>
+          <t>Agree Gun</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>3266.18</v>
+        <v>7745.24</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2799.03</v>
+        <v>6754.5</v>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>Mcpherson-Clark</t>
+          <t>Taylor, Simmons and Taylor</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>HS-127</t>
+          <t>Eo-675</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Hand Surface</t>
+          <t>Spring To</t>
         </is>
       </c>
       <c r="C5" s="3" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>12578.39</v>
+        <v>2911.48</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>9768.040000000001</v>
+        <v>2404.73</v>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>Lopez, Charles and West</t>
+          <t>Price Ltd</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>MO-748</t>
+          <t>Fg-995</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Street Animal</t>
+          <t>Evidence How</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>8263.139999999999</v>
+        <v>10528</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>6964.63</v>
+        <v>8221.67</v>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>Wilkins PLC</t>
+          <t>Rivera-Bowers</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>EQ-664</t>
+          <t>Gp-883</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>True Mother</t>
+          <t>Like Minute</t>
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>3516.47</v>
+        <v>10538.81</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>2429.62</v>
+        <v>8490.49</v>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>Brock-Greene</t>
+          <t>Smith Group</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>gL-373</t>
+          <t>dO-742</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Share Office</t>
+          <t>Force Side</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>13276.15</v>
+        <v>3025.78</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>8895.91</v>
+        <v>2440.72</v>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>Hardin-Golden</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>jG-754</t>
+          <t>QG-540</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Bit Also</t>
+          <t>Administration No</t>
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>14004.96</v>
+        <v>10321.23</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>9698.6</v>
+        <v>7378.96</v>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>Meyer and Sons</t>
+          <t>Austin PLC</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>eo-658</t>
+          <t>kn-963</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Finish Plant</t>
+          <t>Cut Chair</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1926.79</v>
+        <v>3331.18</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>1621.33</v>
+        <v>2906.08</v>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>King, Zuniga and Robinson</t>
+          <t>Hunter-Pham</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>PX-318</t>
+          <t>fb-610</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Would Sing</t>
+          <t>Visit Require</t>
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>13293.21</v>
+        <v>8800.59</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>9354.84</v>
+        <v>6503.65</v>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>Cardenas, Figueroa and Williamson</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>Hz-088</t>
+          <t>pE-002</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Throw Hard</t>
+          <t>Worker System</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>7726.05</v>
+        <v>10408.74</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>6207.6</v>
+        <v>9283.809999999999</v>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>Beltran Group</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>EB-355</t>
+          <t>Jn-074</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Experience Maintain</t>
+          <t>Tv Place</t>
         </is>
       </c>
       <c r="C13" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>2582.64</v>
+        <v>10700.6</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>2118.68</v>
+        <v>8329.01</v>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>Atkins-Thomas</t>
+          <t>Butler and Sons</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>wf-590</t>
+          <t>EV-714</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Clear Other</t>
+          <t>None Rate</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>11187.58</v>
+        <v>5602.81</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>7608.7</v>
+        <v>3949.11</v>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>Anderson-Barnes</t>
+          <t>Foster and Sons</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Ua-699</t>
+          <t>jo-204</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Sing Seem</t>
+          <t>Baby Husband</t>
         </is>
       </c>
       <c r="C15" s="3" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>6206.57</v>
+        <v>1395.74</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>4450.67</v>
+        <v>1171.42</v>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>Cole-Taylor</t>
+          <t>Clark, Gonzales and Dougherty</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>My-088</t>
+          <t>QQ-127</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Two Accept</t>
+          <t>Social Reveal</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>10215.19</v>
+        <v>4022.62</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>8233.440000000001</v>
+        <v>3439.88</v>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>Olson PLC</t>
+          <t>Austin PLC</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>LK-868</t>
+          <t>nd-127</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Baby Wait</t>
+          <t>Candidate Sell</t>
         </is>
       </c>
       <c r="C17" s="3" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>10562.69</v>
+        <v>8230.610000000001</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>8686.26</v>
+        <v>5961.16</v>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>Evans PLC</t>
+          <t>Padilla-Bautista</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>FB-852</t>
+          <t>HC-949</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Have Open</t>
+          <t>Finish Official</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>7308.59</v>
+        <v>4350.14</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>5477.83</v>
+        <v>3537.25</v>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>Williams-Clark</t>
+          <t>Taylor, Simmons and Taylor</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>PJ-622</t>
+          <t>qM-809</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Lose Center</t>
+          <t>Carry Note</t>
         </is>
       </c>
       <c r="C19" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>5545.25</v>
+        <v>8932.139999999999</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>4353.01</v>
+        <v>6257.78</v>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>Hamilton, Lee and Delacruz</t>
+          <t>Harris PLC</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>Dq-782</t>
+          <t>Yz-755</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Open True</t>
+          <t>Until Reveal</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>5957.51</v>
+        <v>12037.4</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>4007.61</v>
+        <v>9131.33</v>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>Crawford-Garner</t>
+          <t>Mcknight Ltd</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>SB-928</t>
+          <t>xH-639</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Role Wonder</t>
+          <t>Wonder Paper</t>
         </is>
       </c>
       <c r="C21" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>11500.22</v>
+        <v>8169.21</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>7827.26</v>
+        <v>5970.71</v>
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>Thompson Ltd</t>
+          <t>Archer, Gibson and Michael</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>RC-306</t>
+          <t>Zj-337</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Apply Several</t>
+          <t>Section Military</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>8483.77</v>
+        <v>12460.19</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>5681.95</v>
+        <v>9758.379999999999</v>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>Morales Inc</t>
+          <t>Lamb, Brown and Morrow</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>fE-664</t>
+          <t>zr-735</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Once Positive</t>
+          <t>Environmental Much</t>
         </is>
       </c>
       <c r="C23" s="3" t="n">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>1536.19</v>
+        <v>5743.92</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>1036.94</v>
+        <v>5209.09</v>
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>Hansen Inc</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>UM-573</t>
+          <t>sh-704</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Yet Interesting</t>
+          <t>Great Picture</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>5583.53</v>
+        <v>1857.38</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>4772.03</v>
+        <v>1429.41</v>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>Woods, Rivera and Duncan</t>
+          <t>Lamb, Brown and Morrow</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>lo-900</t>
+          <t>qG-399</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Beat Stock</t>
+          <t>Speak North</t>
         </is>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>4034.34</v>
+        <v>9942.450000000001</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>3102.32</v>
+        <v>7483.77</v>
       </c>
       <c r="F25" s="3" t="inlineStr">
         <is>
-          <t>Long, Bowers and Rodriguez</t>
+          <t>Ponce-Schwartz</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>xI-364</t>
+          <t>OC-970</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>He Black</t>
+          <t>Fight Person</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>4060.62</v>
+        <v>12479.15</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>3155.38</v>
+        <v>8402.700000000001</v>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>Glenn-Cole</t>
+          <t>Roberts, Carter and Lopez</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>Ig-186</t>
+          <t>Sr-259</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Listen Ever</t>
+          <t>This Year</t>
         </is>
       </c>
       <c r="C27" s="3" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>4096.93</v>
+        <v>11609.51</v>
       </c>
       <c r="E27" s="3" t="n">
-        <v>3251.89</v>
+        <v>8915.719999999999</v>
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>Thomas-Walker</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>Fr-244</t>
+          <t>Nc-441</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>Hotel Official</t>
+          <t>Whose Successful</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>4875.3</v>
+        <v>8008.13</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>3426.5</v>
+        <v>5729.55</v>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>Ellis Ltd</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>mj-117</t>
+          <t>qO-286</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Interesting Economy</t>
+          <t>Suddenly Production</t>
         </is>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>3779</v>
+        <v>11893.84</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>3238.95</v>
+        <v>8831.51</v>
       </c>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t>Walker-Jones</t>
+          <t>Castro-Williams</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>Bw-528</t>
+          <t>IX-996</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>Pressure Place</t>
+          <t>Understand List</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>5751.07</v>
+        <v>4765.5</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>4388.93</v>
+        <v>3832.23</v>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>Carson Ltd</t>
+          <t>Butler and Sons</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>vH-125</t>
+          <t>KU-668</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Very Officer</t>
+          <t>Offer Impact</t>
         </is>
       </c>
       <c r="C31" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>4276.74</v>
+        <v>4102.18</v>
       </c>
       <c r="E31" s="3" t="n">
-        <v>3860.71</v>
+        <v>3174.61</v>
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t>Johnson Inc</t>
+          <t>Allen Ltd</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>mM-828</t>
+          <t>fX-719</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>Less Thank</t>
+          <t>Yes Campaign</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>6662.86</v>
+        <v>11799.03</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>5404.07</v>
+        <v>7952.82</v>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>Horn and Sons</t>
+          <t>Sanford PLC</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>Xu-677</t>
+          <t>dE-696</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>Win Take</t>
+          <t>Early Standard</t>
         </is>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>9093.49</v>
+        <v>6369.72</v>
       </c>
       <c r="E33" s="3" t="n">
-        <v>8235.26</v>
+        <v>4961.48</v>
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>Estrada-Lewis</t>
+          <t>Delacruz, Curry and Robbins</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>Wr-864</t>
+          <t>Oe-025</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>Condition Factor</t>
+          <t>Wife Sell</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>7880.01</v>
+        <v>10616.78</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>6368.12</v>
+        <v>7646.96</v>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>Bradley, Scott and Tucker</t>
+          <t>Watson-Morales</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>HH-371</t>
+          <t>cM-464</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>Former Both</t>
+          <t>Figure Likely</t>
         </is>
       </c>
       <c r="C35" s="3" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>5594.6</v>
+        <v>13217.09</v>
       </c>
       <c r="E35" s="3" t="n">
-        <v>3856.13</v>
+        <v>8932.639999999999</v>
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>Coffey-Bailey</t>
+          <t>Price Ltd</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>xS-935</t>
+          <t>oK-874</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>Line Mrs</t>
+          <t>Soldier Strategy</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>9260.17</v>
+        <v>2758.84</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>6589.18</v>
+        <v>2391.25</v>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>Vaughan PLC</t>
+          <t>Ramirez, Kelley and Young</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>gn-762</t>
+          <t>VY-774</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Offer Current</t>
+          <t>Speech Natural</t>
         </is>
       </c>
       <c r="C37" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>6102.86</v>
+        <v>3623.05</v>
       </c>
       <c r="E37" s="3" t="n">
-        <v>4739.03</v>
+        <v>2493.68</v>
       </c>
       <c r="F37" s="3" t="inlineStr">
         <is>
-          <t>Miller-Brown</t>
+          <t>Taylor, Simmons and Taylor</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>AC-292</t>
+          <t>um-759</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>Staff Edge</t>
+          <t>Your Commercial</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>1888.84</v>
+        <v>5538.07</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>1374.36</v>
+        <v>4148.84</v>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>Long, Bowers and Rodriguez</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>Sq-627</t>
+          <t>Qq-416</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>Piece However</t>
+          <t>Plan Expert</t>
         </is>
       </c>
       <c r="C39" s="3" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>1428.18</v>
+        <v>2722.67</v>
       </c>
       <c r="E39" s="3" t="n">
-        <v>1038.26</v>
+        <v>2110.13</v>
       </c>
       <c r="F39" s="3" t="inlineStr">
         <is>
-          <t>Martin LLC</t>
+          <t>Salazar-Spencer</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>Ci-322</t>
+          <t>CP-095</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>Build Defense</t>
+          <t>Large Black</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>2456.47</v>
+        <v>11898.53</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>2098.93</v>
+        <v>9388.85</v>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>Garcia LLC</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>cR-730</t>
+          <t>le-360</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>Firm Improve</t>
+          <t>Choose Certain</t>
         </is>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>1818.09</v>
+        <v>2473.99</v>
       </c>
       <c r="E41" s="3" t="n">
-        <v>1406.18</v>
+        <v>2152.8</v>
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t>Estrada-Lewis</t>
+          <t>Ponce-Schwartz</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>eB-219</t>
+          <t>Th-206</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>Official President</t>
+          <t>Authority Long</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>10259.29</v>
+        <v>1862.42</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>8591.49</v>
+        <v>1541.99</v>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>Hernandez-Kirk</t>
+          <t>Parrish-Rogers</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>VN-601</t>
+          <t>CA-987</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>School Memory</t>
+          <t>Need Upon</t>
         </is>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>8493.200000000001</v>
+        <v>9646.77</v>
       </c>
       <c r="E43" s="3" t="n">
-        <v>6269.25</v>
+        <v>6563.42</v>
       </c>
       <c r="F43" s="3" t="inlineStr">
         <is>
-          <t>Woods, Rivera and Duncan</t>
+          <t>Robles-Schmitt</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>SS-748</t>
+          <t>oJ-378</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>Different Himself</t>
+          <t>Pass Brother</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>11781.75</v>
+        <v>5401.08</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>8100.8</v>
+        <v>4127.87</v>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>Meyer and Sons</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>xj-568</t>
+          <t>fG-454</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>It Themselves</t>
+          <t>Education Probably</t>
         </is>
       </c>
       <c r="C45" s="3" t="n">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>4599.16</v>
+        <v>8400.52</v>
       </c>
       <c r="E45" s="3" t="n">
-        <v>3670.81</v>
+        <v>7447.44</v>
       </c>
       <c r="F45" s="3" t="inlineStr">
         <is>
-          <t>Terry, Watts and Reed</t>
+          <t>Archer, Gibson and Michael</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>WI-864</t>
+          <t>jq-718</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>Themselves Hear</t>
+          <t>Night Easy</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>7396.53</v>
+        <v>13323.84</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>6121.92</v>
+        <v>9004.01</v>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>Hill and Sons</t>
+          <t>Powers Inc</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>Kl-223</t>
+          <t>UB-281</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>None Meeting</t>
+          <t>Hair Third</t>
         </is>
       </c>
       <c r="C47" s="3" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>11115.71</v>
+        <v>13069.13</v>
       </c>
       <c r="E47" s="3" t="n">
-        <v>9906.030000000001</v>
+        <v>8789.67</v>
       </c>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>Williams-Clark</t>
+          <t>Robles-Schmitt</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>Cf-400</t>
+          <t>eg-007</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>Save Radio</t>
+          <t>Feel All</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>2102.75</v>
+        <v>3233.94</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>1869.35</v>
+        <v>2747.51</v>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>Beltran Group</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>pv-216</t>
+          <t>Vs-002</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Type Network</t>
+          <t>Ask Ten</t>
         </is>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>7942.38</v>
+        <v>3162.2</v>
       </c>
       <c r="E49" s="3" t="n">
-        <v>6043.57</v>
+        <v>2688.81</v>
       </c>
       <c r="F49" s="3" t="inlineStr">
         <is>
-          <t>Williams, Christian and Flores</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>NF-642</t>
+          <t>AT-390</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>Red They</t>
+          <t>Onto Idea</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>12988.05</v>
+        <v>6028.43</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>9882.34</v>
+        <v>4732.96</v>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>Clark-Foster</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>rP-341</t>
+          <t>Wb-652</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>Six Much</t>
+          <t>Some Majority</t>
         </is>
       </c>
       <c r="C51" s="3" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>3247.86</v>
+        <v>5530.16</v>
       </c>
       <c r="E51" s="3" t="n">
-        <v>2246.56</v>
+        <v>4838.97</v>
       </c>
       <c r="F51" s="3" t="inlineStr">
         <is>
-          <t>Mcclain-Kim</t>
+          <t>Mack Inc</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>IP-593</t>
+          <t>lU-112</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>Son Reason</t>
+          <t>Usually Should</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>12648.47</v>
+        <v>8896.309999999999</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>8756.040000000001</v>
+        <v>7728.3</v>
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>Cruz, Moreno and Henderson</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>ba-062</t>
+          <t>ZF-210</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>Account Dinner</t>
+          <t>Air Alone</t>
         </is>
       </c>
       <c r="C53" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>7930.76</v>
+        <v>10723.07</v>
       </c>
       <c r="E53" s="3" t="n">
-        <v>5544.66</v>
+        <v>9583.4</v>
       </c>
       <c r="F53" s="3" t="inlineStr">
         <is>
-          <t>Anderson-Rose</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>sj-484</t>
+          <t>Id-517</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>Quite Low</t>
+          <t>Huge Book</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>8481.02</v>
+        <v>3084.17</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>7154.2</v>
+        <v>2436.73</v>
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>Hill LLC</t>
+          <t>Nelson Inc</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>iN-621</t>
+          <t>Xq-923</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Feeling Let</t>
+          <t>Game Paper</t>
         </is>
       </c>
       <c r="C55" s="3" t="n">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>7176.11</v>
+        <v>3536.49</v>
       </c>
       <c r="E55" s="3" t="n">
-        <v>5115.94</v>
+        <v>2412.05</v>
       </c>
       <c r="F55" s="3" t="inlineStr">
         <is>
-          <t>Hull-Hudson</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>VX-895</t>
+          <t>iq-879</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>Building Congress</t>
+          <t>West Action</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>6087.73</v>
+        <v>10562.47</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>5249.8</v>
+        <v>8214.440000000001</v>
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>Sharp Group</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>xo-467</t>
+          <t>OH-512</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>Religious Spring</t>
+          <t>Plant Ever</t>
         </is>
       </c>
       <c r="C57" s="3" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>6015.31</v>
+        <v>12159.28</v>
       </c>
       <c r="E57" s="3" t="n">
-        <v>4667.17</v>
+        <v>9782.209999999999</v>
       </c>
       <c r="F57" s="3" t="inlineStr">
         <is>
-          <t>Roberts, Pennington and Hardy</t>
+          <t>Freeman, Williams and Morales</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>UW-122</t>
+          <t>tU-797</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>Above Seem</t>
+          <t>Local Then</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>6843.44</v>
+        <v>13854.58</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>4911.83</v>
+        <v>9830.16</v>
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>Huber-White</t>
+          <t>Padilla-Bautista</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>zl-936</t>
+          <t>cx-132</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>Someone Identify</t>
+          <t>American However</t>
         </is>
       </c>
       <c r="C59" s="3" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>7103.61</v>
+        <v>3663.07</v>
       </c>
       <c r="E59" s="3" t="n">
-        <v>6455.58</v>
+        <v>2450.13</v>
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
-          <t>Washington Group</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>pN-385</t>
+          <t>gv-893</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>Fact So</t>
+          <t>Address Professional</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>2730.34</v>
+        <v>12269.39</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>1944.17</v>
+        <v>8915.65</v>
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>Graham, Johnson and Green</t>
+          <t>Butler and Sons</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>EK-368</t>
+          <t>hR-840</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Together Region</t>
+          <t>Start Water</t>
         </is>
       </c>
       <c r="C61" s="3" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>3269.26</v>
+        <v>13253.86</v>
       </c>
       <c r="E61" s="3" t="n">
-        <v>2871.34</v>
+        <v>9760.76</v>
       </c>
       <c r="F61" s="3" t="inlineStr">
         <is>
-          <t>Snyder-Lewis</t>
+          <t>Salazar-Spencer</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>Gv-587</t>
+          <t>Tp-618</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>Politics Heart</t>
+          <t>Task Section</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>6538.17</v>
+        <v>3983.92</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>4423.36</v>
+        <v>3126.53</v>
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>Atkins-Thomas</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>wy-105</t>
+          <t>SI-840</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>Himself Style</t>
+          <t>World Share</t>
         </is>
       </c>
       <c r="C63" s="3" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>7261.21</v>
+        <v>1771.93</v>
       </c>
       <c r="E63" s="3" t="n">
-        <v>5560.88</v>
+        <v>1515.96</v>
       </c>
       <c r="F63" s="3" t="inlineStr">
         <is>
-          <t>Williams-Clark</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>jM-014</t>
+          <t>HY-307</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>Like Radio</t>
+          <t>Painting Necessary</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>2026.45</v>
+        <v>10104.09</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>1449.51</v>
+        <v>6744.47</v>
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>Hill-Myers</t>
+          <t>Crawford-Henderson</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>DE-604</t>
+          <t>PD-663</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>Stuff Situation</t>
+          <t>Rich Report</t>
         </is>
       </c>
       <c r="C65" s="3" t="n">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>10068.38</v>
+        <v>6247.81</v>
       </c>
       <c r="E65" s="3" t="n">
-        <v>8687.120000000001</v>
+        <v>4417.53</v>
       </c>
       <c r="F65" s="3" t="inlineStr">
         <is>
-          <t>Woods, Rivera and Duncan</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>bO-468</t>
+          <t>oE-898</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>Claim Across</t>
+          <t>Easy Recognize</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>11718.14</v>
+        <v>4429.34</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>8377.799999999999</v>
+        <v>3909.99</v>
       </c>
       <c r="F66" s="2" t="inlineStr">
         <is>
-          <t>Keller, Gonzalez and Chang</t>
+          <t>Ellis and Sons</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>uK-464</t>
+          <t>JF-032</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>Admit Experience</t>
+          <t>Still Chair</t>
         </is>
       </c>
       <c r="C67" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>12881.72</v>
+        <v>8901.889999999999</v>
       </c>
       <c r="E67" s="3" t="n">
-        <v>8862.700000000001</v>
+        <v>7740.6</v>
       </c>
       <c r="F67" s="3" t="inlineStr">
         <is>
-          <t>Thomas-Klein</t>
+          <t>Clark, Hamilton and Shaffer</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>Ki-797</t>
+          <t>tN-340</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>Data Century</t>
+          <t>Themselves City</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>6918.9</v>
+        <v>2136.91</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>5383.78</v>
+        <v>1530.68</v>
       </c>
       <c r="F68" s="2" t="inlineStr">
         <is>
-          <t>Williams, Christian and Flores</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>VZ-344</t>
+          <t>JM-904</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>Civil International</t>
+          <t>Two Beat</t>
         </is>
       </c>
       <c r="C69" s="3" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>3330.89</v>
+        <v>12533.97</v>
       </c>
       <c r="E69" s="3" t="n">
-        <v>3008.44</v>
+        <v>8474.549999999999</v>
       </c>
       <c r="F69" s="3" t="inlineStr">
         <is>
-          <t>Delgado, Garcia and Henderson</t>
+          <t>aaa</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>FW-096</t>
+          <t>jA-157</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>Seem Study</t>
+          <t>Thank Pass</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>4655.41</v>
+        <v>4117.14</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>3211.21</v>
+        <v>3686.4</v>
       </c>
       <c r="F70" s="2" t="inlineStr">
         <is>
-          <t>Walker-Jones</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>NC-727</t>
+          <t>rj-778</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>Enjoy Score</t>
+          <t>Interesting Where</t>
         </is>
       </c>
       <c r="C71" s="3" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D71" s="3" t="n">
-        <v>3805.32</v>
+        <v>12093.18</v>
       </c>
       <c r="E71" s="3" t="n">
-        <v>2588.02</v>
+        <v>9377.17</v>
       </c>
       <c r="F71" s="3" t="inlineStr">
         <is>
-          <t>Sims LLC</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>FJ-355</t>
+          <t>Hz-149</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>Concern Feel</t>
+          <t>Single Understand</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>10551.96</v>
+        <v>9199.07</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>8639.17</v>
+        <v>7561.06</v>
       </c>
       <c r="F72" s="2" t="inlineStr">
         <is>
-          <t>Turner Group</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>uO-033</t>
+          <t>wD-538</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>Policy Make</t>
+          <t>To Major</t>
         </is>
       </c>
       <c r="C73" s="3" t="n">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D73" s="3" t="n">
-        <v>7179.58</v>
+        <v>9356.33</v>
       </c>
       <c r="E73" s="3" t="n">
-        <v>5508.82</v>
+        <v>7023.64</v>
       </c>
       <c r="F73" s="3" t="inlineStr">
         <is>
-          <t>Butler, Adams and Woods</t>
+          <t>Mcbride-Wolfe</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>rX-140</t>
+          <t>yv-255</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>Boy Letter</t>
+          <t>Involve Well</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>2185.19</v>
+        <v>5553.57</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>1669.48</v>
+        <v>4889</v>
       </c>
       <c r="F74" s="2" t="inlineStr">
         <is>
-          <t>Morse, Chavez and Montgomery</t>
+          <t>Sanchez LLC</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>yg-904</t>
+          <t>iL-624</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>Finally Together</t>
+          <t>Economy Despite</t>
         </is>
       </c>
       <c r="C75" s="3" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D75" s="3" t="n">
-        <v>11236.76</v>
+        <v>5354.98</v>
       </c>
       <c r="E75" s="3" t="n">
-        <v>9007.879999999999</v>
+        <v>4640.6</v>
       </c>
       <c r="F75" s="3" t="inlineStr">
         <is>
-          <t>Young-Warner</t>
+          <t>aaa</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>Ml-469</t>
+          <t>uf-924</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>Ball Ball</t>
+          <t>Exist Third</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>5263.16</v>
+        <v>10827.51</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>4060.75</v>
+        <v>8028.48</v>
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>Romero Group</t>
+          <t>Sanford PLC</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>wY-528</t>
+          <t>vO-666</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>One With</t>
+          <t>System Claim</t>
         </is>
       </c>
       <c r="C77" s="3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D77" s="3" t="n">
-        <v>8933.450000000001</v>
+        <v>2975.23</v>
       </c>
       <c r="E77" s="3" t="n">
-        <v>6976.53</v>
+        <v>2305.33</v>
       </c>
       <c r="F77" s="3" t="inlineStr">
         <is>
-          <t>Huber-White</t>
+          <t>Humphrey Ltd</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>md-102</t>
+          <t>It-496</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>Expect Subject</t>
+          <t>Collection Happy</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>1920.33</v>
+        <v>1872.44</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>1311.48</v>
+        <v>1335.07</v>
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>Miller-Brown</t>
+          <t>Garza-Byrd</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>ys-304</t>
+          <t>hQ-142</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>Me Lead</t>
+          <t>Middle Political</t>
         </is>
       </c>
       <c r="C79" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D79" s="3" t="n">
-        <v>5709.21</v>
+        <v>5444.86</v>
       </c>
       <c r="E79" s="3" t="n">
-        <v>4297.23</v>
+        <v>4198.4</v>
       </c>
       <c r="F79" s="3" t="inlineStr">
         <is>
-          <t>Johnston-Duncan</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>gz-054</t>
+          <t>Iy-679</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>Since Newspaper</t>
+          <t>Team Letter</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>1729.91</v>
+        <v>1249.09</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>1293.36</v>
+        <v>1101.95</v>
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>Wells, Roy and Reed</t>
+          <t>Lara Ltd</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>Ej-292</t>
+          <t>Ip-851</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>Career Decade</t>
+          <t>Second Draw</t>
         </is>
       </c>
       <c r="C81" s="3" t="n">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D81" s="3" t="n">
-        <v>9802.799999999999</v>
+        <v>6543.36</v>
       </c>
       <c r="E81" s="3" t="n">
-        <v>8082.07</v>
+        <v>5028.88</v>
       </c>
       <c r="F81" s="3" t="inlineStr">
         <is>
-          <t>Butler, Adams and Woods</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>Mq-874</t>
+          <t>LD-512</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>Wait Born</t>
+          <t>Thing Sport</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>5854.89</v>
+        <v>4863.9</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>3930.24</v>
+        <v>3302.77</v>
       </c>
       <c r="F82" s="2" t="inlineStr">
         <is>
-          <t>Hamilton, Lee and Delacruz</t>
+          <t>Martinez, Hurst and Howe</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>Lp-906</t>
+          <t>LV-933</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>Southern Course</t>
+          <t>Building Protect</t>
         </is>
       </c>
       <c r="C83" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D83" s="3" t="n">
-        <v>4259.27</v>
+        <v>12738.31</v>
       </c>
       <c r="E83" s="3" t="n">
-        <v>3694.02</v>
+        <v>9257.139999999999</v>
       </c>
       <c r="F83" s="3" t="inlineStr">
         <is>
-          <t>Bailey, Larson and Hartman</t>
+          <t>Ramirez, Kelley and Young</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>ma-567</t>
+          <t>in-689</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>Price Catch</t>
+          <t>Pay More</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>6552.57</v>
+        <v>5376.09</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>5858.17</v>
+        <v>4751.58</v>
       </c>
       <c r="F84" s="2" t="inlineStr">
         <is>
-          <t>Obrien, Mitchell and Scott</t>
+          <t>Turner LLC</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>cA-228</t>
+          <t>fA-807</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>Similar Radio</t>
+          <t>Officer Draw</t>
         </is>
       </c>
       <c r="C85" s="3" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D85" s="3" t="n">
-        <v>12345.38</v>
+        <v>5152.61</v>
       </c>
       <c r="E85" s="3" t="n">
-        <v>9306.34</v>
+        <v>3635.11</v>
       </c>
       <c r="F85" s="3" t="inlineStr">
         <is>
-          <t>Mays, Mccoy and Baker</t>
+          <t>Wagner, Nichols and Rodriguez</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>xw-341</t>
+          <t>VX-994</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>Well Test</t>
+          <t>Blue Simply</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>6363.33</v>
+        <v>4214.38</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>5104.29</v>
+        <v>2884.31</v>
       </c>
       <c r="F86" s="2" t="inlineStr">
         <is>
-          <t>Jacobs-Rose</t>
+          <t>Alvarez PLC</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>Es-412</t>
+          <t>Yg-302</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>Teacher City</t>
+          <t>Catch Catch</t>
         </is>
       </c>
       <c r="C87" s="3" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="D87" s="3" t="n">
-        <v>10257.43</v>
+        <v>5259.61</v>
       </c>
       <c r="E87" s="3" t="n">
-        <v>8888.889999999999</v>
+        <v>3674.53</v>
       </c>
       <c r="F87" s="3" t="inlineStr">
         <is>
-          <t>Tanner, Stein and Miller</t>
+          <t>Wright, Ray and Guerra</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>Tn-115</t>
+          <t>fK-709</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>Sort Measure</t>
+          <t>Sometimes Throw</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>7102.96</v>
+        <v>7633.94</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>5440.98</v>
+        <v>5951.39</v>
       </c>
       <c r="F88" s="2" t="inlineStr">
         <is>
-          <t>Love-Fitzpatrick</t>
+          <t>Garza-Byrd</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>Jk-379</t>
+          <t>rg-884</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>Chair Every</t>
+          <t>Television Stop</t>
         </is>
       </c>
       <c r="C89" s="3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D89" s="3" t="n">
-        <v>3030.83</v>
+        <v>13021.14</v>
       </c>
       <c r="E89" s="3" t="n">
-        <v>2602.09</v>
+        <v>8684.34</v>
       </c>
       <c r="F89" s="3" t="inlineStr">
         <is>
-          <t>Jones, Torres and Bond</t>
+          <t>Crawford-Henderson</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>Xp-462</t>
+          <t>Xr-930</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>Good Open</t>
+          <t>Reach Radio</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>8911.440000000001</v>
+        <v>11270.82</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>5993.37</v>
+        <v>9909.809999999999</v>
       </c>
       <c r="F90" s="2" t="inlineStr">
         <is>
-          <t>West Inc</t>
+          <t>Roberts, Carter and Lopez</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>cP-289</t>
+          <t>EW-562</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>Material Sure</t>
+          <t>On Wrong</t>
         </is>
       </c>
       <c r="C91" s="3" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D91" s="3" t="n">
-        <v>8026.71</v>
+        <v>9284.92</v>
       </c>
       <c r="E91" s="3" t="n">
-        <v>5571.62</v>
+        <v>7675.99</v>
       </c>
       <c r="F91" s="3" t="inlineStr">
         <is>
-          <t>Hull-Hudson</t>
+          <t>Parrish-Rogers</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>AN-341</t>
+          <t>qs-520</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>Although Meeting</t>
+          <t>Trouble Tv</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>12278.12</v>
+        <v>7713.36</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>8265.950000000001</v>
+        <v>5404.72</v>
       </c>
       <c r="F92" s="2" t="inlineStr">
         <is>
-          <t>Moore Group</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>rE-774</t>
+          <t>lg-310</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>Board Prepare</t>
+          <t>Stock Degree</t>
         </is>
       </c>
       <c r="C93" s="3" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D93" s="3" t="n">
-        <v>2658.37</v>
+        <v>2125.89</v>
       </c>
       <c r="E93" s="3" t="n">
-        <v>1938.55</v>
+        <v>1613.78</v>
       </c>
       <c r="F93" s="3" t="inlineStr">
         <is>
-          <t>Vargas-Thompson</t>
+          <t>Humphrey Ltd</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>yQ-871</t>
+          <t>Bw-877</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>Then City</t>
+          <t>Able Quite</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>13217.48</v>
+        <v>4924.63</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>9447.49</v>
+        <v>3961.21</v>
       </c>
       <c r="F94" s="2" t="inlineStr">
         <is>
-          <t>Atkins-Turner</t>
+          <t>Padilla-Bautista</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>nq-047</t>
+          <t>Hi-647</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>Father Bill</t>
+          <t>Focus Arrive</t>
         </is>
       </c>
       <c r="C95" s="3" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D95" s="3" t="n">
-        <v>2947.54</v>
+        <v>13424.59</v>
       </c>
       <c r="E95" s="3" t="n">
-        <v>2288.72</v>
+        <v>9368.389999999999</v>
       </c>
       <c r="F95" s="3" t="inlineStr">
         <is>
-          <t>Horn and Sons</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>xm-633</t>
+          <t>Pf-453</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>Reflect Beautiful</t>
+          <t>More Job</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>7752.6</v>
+        <v>1829.06</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>5585.52</v>
+        <v>1542.71</v>
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>Wu Ltd</t>
+          <t>Lara Ltd</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>SF-045</t>
+          <t>zN-246</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>There Modern</t>
+          <t>Answer Personal</t>
         </is>
       </c>
       <c r="C97" s="3" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D97" s="3" t="n">
-        <v>8082.64</v>
+        <v>11054.01</v>
       </c>
       <c r="E97" s="3" t="n">
-        <v>6844.89</v>
+        <v>9467.32</v>
       </c>
       <c r="F97" s="3" t="inlineStr">
         <is>
-          <t>Wolfe-Barrera</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>gU-842</t>
+          <t>eX-037</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>Rich Result</t>
+          <t>Image Society</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>11174.25</v>
+        <v>6359.28</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>9182.92</v>
+        <v>5214.32</v>
       </c>
       <c r="F98" s="2" t="inlineStr">
         <is>
-          <t>Powell-Lowery</t>
+          <t>Salazar-Spencer</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>fw-084</t>
+          <t>PI-431</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>Top Different</t>
+          <t>Picture First</t>
         </is>
       </c>
       <c r="C99" s="3" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D99" s="3" t="n">
-        <v>12296.38</v>
+        <v>12183.28</v>
       </c>
       <c r="E99" s="3" t="n">
-        <v>9414.49</v>
+        <v>9112.290000000001</v>
       </c>
       <c r="F99" s="3" t="inlineStr">
         <is>
-          <t>Johnson Inc</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>ql-221</t>
+          <t>wq-301</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>Matter Get</t>
+          <t>Contain Phone</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
         <v>44</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>8990.129999999999</v>
+        <v>9729.379999999999</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>6172.42</v>
+        <v>7254.11</v>
       </c>
       <c r="F100" s="2" t="inlineStr">
         <is>
-          <t>Green LLC</t>
+          <t>Byrd Inc</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>wY-176</t>
+          <t>eh-287</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>Treat Firm</t>
+          <t>Join These</t>
         </is>
       </c>
       <c r="C101" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D101" s="3" t="n">
-        <v>10065.34</v>
+        <v>5397.39</v>
       </c>
       <c r="E101" s="3" t="n">
-        <v>8392.82</v>
+        <v>4584.89</v>
       </c>
       <c r="F101" s="3" t="inlineStr">
         <is>
-          <t>Jacobs-Rose</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>uj-687</t>
+          <t>BU-169</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>Service Need</t>
+          <t>Range Most</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>5038.16</v>
+        <v>5904.84</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>3607.64</v>
+        <v>5288.4</v>
       </c>
       <c r="F102" s="2" t="inlineStr">
         <is>
-          <t>Wilkins PLC</t>
+          <t>Ramirez, Kelley and Young</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>sL-510</t>
+          <t>UG-315</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>Just Compare</t>
+          <t>Claim See</t>
         </is>
       </c>
       <c r="C103" s="3" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="D103" s="3" t="n">
-        <v>5971.56</v>
+        <v>6000.55</v>
       </c>
       <c r="E103" s="3" t="n">
-        <v>5363.35</v>
+        <v>4700.77</v>
       </c>
       <c r="F103" s="3" t="inlineStr">
         <is>
-          <t>Wolfe-Nelson</t>
+          <t>Flores-Dillon</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>nz-496</t>
+          <t>Cb-991</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>Several Account</t>
+          <t>Account Develop</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>7177.79</v>
+        <v>5138.18</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>6177.4</v>
+        <v>4436.38</v>
       </c>
       <c r="F104" s="2" t="inlineStr">
         <is>
-          <t>Humphrey and Sons</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>Sl-474</t>
+          <t>Co-000</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>Point Little</t>
+          <t>Major Medical</t>
         </is>
       </c>
       <c r="C105" s="3" t="n">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="D105" s="3" t="n">
-        <v>5677.73</v>
+        <v>5007.2</v>
       </c>
       <c r="E105" s="3" t="n">
-        <v>5093.41</v>
+        <v>3432.69</v>
       </c>
       <c r="F105" s="3" t="inlineStr">
         <is>
-          <t>Anderson-Barnes</t>
+          <t>Swa</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>sq-009</t>
+          <t>Xx-369</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>Talk Rise</t>
+          <t>Back Street</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>9800.219999999999</v>
+        <v>5012.58</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>7226.34</v>
+        <v>4278.35</v>
       </c>
       <c r="F106" s="2" t="inlineStr">
         <is>
-          <t>Lewis, Rivera and Browning</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>gF-505</t>
+          <t>hg-892</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>Time Organization</t>
+          <t>Issue Happen</t>
         </is>
       </c>
       <c r="C107" s="3" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="D107" s="3" t="n">
-        <v>5699.24</v>
+        <v>4702.72</v>
       </c>
       <c r="E107" s="3" t="n">
-        <v>3931.57</v>
+        <v>3146.49</v>
       </c>
       <c r="F107" s="3" t="inlineStr">
         <is>
-          <t>West Inc</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>br-991</t>
+          <t>ba-420</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>Right Modern</t>
+          <t>Data Learn</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>4706.95</v>
+        <v>9454.530000000001</v>
       </c>
       <c r="E108" s="2" t="n">
-        <v>3586.46</v>
+        <v>7484.17</v>
       </c>
       <c r="F108" s="2" t="inlineStr">
         <is>
-          <t>Hendricks, Anderson and Hart</t>
+          <t>Byrd Inc</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>HA-466</t>
+          <t>YO-087</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>His Contain</t>
+          <t>Space Continue</t>
         </is>
       </c>
       <c r="C109" s="3" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D109" s="3" t="n">
-        <v>5724.55</v>
+        <v>12582.85</v>
       </c>
       <c r="E109" s="3" t="n">
-        <v>4479.42</v>
+        <v>9459.450000000001</v>
       </c>
       <c r="F109" s="3" t="inlineStr">
         <is>
-          <t>Harrell Ltd</t>
+          <t>Delacruz, Curry and Robbins</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>Ra-030</t>
+          <t>Sb-474</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>Its Fire</t>
+          <t>Course Better</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>3924.46</v>
+        <v>6468.51</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>3302.6</v>
+        <v>5607.46</v>
       </c>
       <c r="F110" s="2" t="inlineStr">
         <is>
-          <t>Obrien, Mitchell and Scott</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>DP-198</t>
+          <t>nH-751</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>Change Entire</t>
+          <t>Low Until</t>
         </is>
       </c>
       <c r="C111" s="3" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D111" s="3" t="n">
-        <v>12818.81</v>
+        <v>6811.4</v>
       </c>
       <c r="E111" s="3" t="n">
-        <v>9651.209999999999</v>
+        <v>5527.05</v>
       </c>
       <c r="F111" s="3" t="inlineStr">
         <is>
-          <t>Hebert-Brooks</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>Sm-802</t>
+          <t>RP-274</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>Modern Most</t>
+          <t>Stop Across</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>5685.83</v>
+        <v>8039.33</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>4224.74</v>
+        <v>6462.19</v>
       </c>
       <c r="F112" s="2" t="inlineStr">
         <is>
-          <t>Jefferson LLC</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>Av-101</t>
+          <t>NK-452</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>Stay Attack</t>
+          <t>Organization Price</t>
         </is>
       </c>
       <c r="C113" s="3" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D113" s="3" t="n">
-        <v>7016.59</v>
+        <v>11297.66</v>
       </c>
       <c r="E113" s="3" t="n">
-        <v>5203.83</v>
+        <v>7877.93</v>
       </c>
       <c r="F113" s="3" t="inlineStr">
         <is>
-          <t>Hernandez-Kirk</t>
+          <t>Austin PLC</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>qI-774</t>
+          <t>VX-437</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>Yard Standard</t>
+          <t>Somebody Trial</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>4356.25</v>
+        <v>11907.06</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>3949.11</v>
+        <v>8871.280000000001</v>
       </c>
       <c r="F114" s="2" t="inlineStr">
         <is>
-          <t>Charles, Sanchez and Malone</t>
+          <t>Freeman, Williams and Morales</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>cN-133</t>
+          <t>xY-855</t>
         </is>
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>College Debate</t>
+          <t>Late Wind</t>
         </is>
       </c>
       <c r="C115" s="3" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D115" s="3" t="n">
-        <v>2932.53</v>
+        <v>12246.81</v>
       </c>
       <c r="E115" s="3" t="n">
-        <v>1970.52</v>
+        <v>9527.66</v>
       </c>
       <c r="F115" s="3" t="inlineStr">
         <is>
-          <t>Cole-Taylor</t>
+          <t>White-Baker</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>sG-219</t>
+          <t>GP-053</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>Deep Rich</t>
+          <t>Land Her</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>9479.41</v>
+        <v>11068.8</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>7145.55</v>
+        <v>7756.97</v>
       </c>
       <c r="F116" s="2" t="inlineStr">
         <is>
-          <t>Leonard-Norris</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>Xv-529</t>
+          <t>mT-378</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>Gun Admit</t>
+          <t>Hot Us</t>
         </is>
       </c>
       <c r="C117" s="3" t="n">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="D117" s="3" t="n">
-        <v>5980.63</v>
+        <v>5634.17</v>
       </c>
       <c r="E117" s="3" t="n">
-        <v>4013.99</v>
+        <v>4773.69</v>
       </c>
       <c r="F117" s="3" t="inlineStr">
         <is>
-          <t>Leonard-Norris</t>
+          <t>Lara Ltd</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>xx-786</t>
+          <t>cx-822</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>Onto Free</t>
+          <t>International Peace</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>6858.96</v>
+        <v>11528.03</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>5605.23</v>
+        <v>8364.280000000001</v>
       </c>
       <c r="F118" s="2" t="inlineStr">
         <is>
-          <t>Miller-Brown</t>
+          <t>Allen Ltd</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>sD-382</t>
+          <t>dz-883</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>Factor Character</t>
+          <t>Director Report</t>
         </is>
       </c>
       <c r="C119" s="3" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D119" s="3" t="n">
-        <v>6583</v>
+        <v>6241.69</v>
       </c>
       <c r="E119" s="3" t="n">
-        <v>5262.79</v>
+        <v>5534.91</v>
       </c>
       <c r="F119" s="3" t="inlineStr">
         <is>
-          <t>Carson Ltd</t>
+          <t>Swa</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>qD-711</t>
+          <t>bl-539</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>On Season</t>
+          <t>Work Street</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>7214.72</v>
+        <v>2149.2</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>5880.55</v>
+        <v>1705.01</v>
       </c>
       <c r="F120" s="2" t="inlineStr">
         <is>
-          <t>Cochran Inc</t>
+          <t>Foster and Sons</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>EF-771</t>
+          <t>pX-891</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
-          <t>Officer Computer</t>
+          <t>Lead Likely</t>
         </is>
       </c>
       <c r="C121" s="3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D121" s="3" t="n">
-        <v>5386.81</v>
+        <v>9485.139999999999</v>
       </c>
       <c r="E121" s="3" t="n">
-        <v>4422.6</v>
+        <v>6900.68</v>
       </c>
       <c r="F121" s="3" t="inlineStr">
         <is>
-          <t>Glenn-Cole</t>
+          <t>Austin PLC</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>qY-297</t>
+          <t>et-234</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>Develop Manage</t>
+          <t>Language Degree</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>9577.549999999999</v>
+        <v>9363.110000000001</v>
       </c>
       <c r="E122" s="2" t="n">
-        <v>8214.379999999999</v>
+        <v>8264.889999999999</v>
       </c>
       <c r="F122" s="2" t="inlineStr">
         <is>
-          <t>Moore-White</t>
+          <t>Price Ltd</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>ha-412</t>
+          <t>Zf-929</t>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>Word Child</t>
+          <t>Little West</t>
         </is>
       </c>
       <c r="C123" s="3" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D123" s="3" t="n">
-        <v>1655.25</v>
+        <v>9242.01</v>
       </c>
       <c r="E123" s="3" t="n">
-        <v>1402.72</v>
+        <v>6850.13</v>
       </c>
       <c r="F123" s="3" t="inlineStr">
         <is>
-          <t>Bailey, Larson and Hartman</t>
+          <t>Anderson, Lawson and Shaffer</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>RT-425</t>
+          <t>DN-408</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>Key Among</t>
+          <t>Order Who</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>5062.77</v>
+        <v>6628.74</v>
       </c>
       <c r="E124" s="2" t="n">
-        <v>3460.04</v>
+        <v>5604.06</v>
       </c>
       <c r="F124" s="2" t="inlineStr">
         <is>
-          <t>Briggs, Hinton and Douglas</t>
+          <t>Butler and Sons</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="3" t="inlineStr">
         <is>
-          <t>GA-511</t>
+          <t>Kd-418</t>
         </is>
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t>Night Mother</t>
+          <t>Forward Behind</t>
         </is>
       </c>
       <c r="C125" s="3" t="n">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="D125" s="3" t="n">
-        <v>7395.35</v>
+        <v>6591.53</v>
       </c>
       <c r="E125" s="3" t="n">
-        <v>5830.58</v>
+        <v>5175.98</v>
       </c>
       <c r="F125" s="3" t="inlineStr">
         <is>
-          <t>Graham, Johnson and Green</t>
+          <t>Flores-Dillon</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>gA-592</t>
+          <t>cn-505</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>Member Friend</t>
+          <t>Crime Identify</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>4190.23</v>
+        <v>5959.59</v>
       </c>
       <c r="E126" s="2" t="n">
-        <v>3408.05</v>
+        <v>4472.44</v>
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>Hebert-Brooks</t>
+          <t>Wilson-Bernard</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="3" t="inlineStr">
         <is>
-          <t>Kl-395</t>
+          <t>Ya-551</t>
         </is>
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t>Activity Fight</t>
+          <t>Next Soon</t>
         </is>
       </c>
       <c r="C127" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D127" s="3" t="n">
-        <v>3603.48</v>
+        <v>9653.5</v>
       </c>
       <c r="E127" s="3" t="n">
-        <v>3011.44</v>
+        <v>6845.43</v>
       </c>
       <c r="F127" s="3" t="inlineStr">
         <is>
-          <t>Garza Inc</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>TE-662</t>
+          <t>SN-986</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>Write Son</t>
+          <t>Be Issue</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>11953.57</v>
+        <v>7804.63</v>
       </c>
       <c r="E128" s="2" t="n">
-        <v>9648.27</v>
+        <v>5453.68</v>
       </c>
       <c r="F128" s="2" t="inlineStr">
         <is>
-          <t>Harrell Ltd</t>
+          <t>Mays, Greer and Wheeler</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="3" t="inlineStr">
         <is>
-          <t>Sl-468</t>
+          <t>sF-446</t>
         </is>
       </c>
       <c r="B129" s="3" t="inlineStr">
         <is>
-          <t>Dinner Back</t>
+          <t>Free Edge</t>
         </is>
       </c>
       <c r="C129" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D129" s="3" t="n">
-        <v>10606.35</v>
+        <v>5432.13</v>
       </c>
       <c r="E129" s="3" t="n">
-        <v>9034.93</v>
+        <v>4187.1</v>
       </c>
       <c r="F129" s="3" t="inlineStr">
         <is>
-          <t>Green LLC</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>UN-062</t>
+          <t>XN-429</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>Such Need</t>
+          <t>Story Rich</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>9819.02</v>
+        <v>3470.16</v>
       </c>
       <c r="E130" s="2" t="n">
-        <v>8015.78</v>
+        <v>2534.92</v>
       </c>
       <c r="F130" s="2" t="inlineStr">
         <is>
-          <t>Johnson, Brown and Jefferson</t>
+          <t>Turner LLC</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>Ai-530</t>
+          <t>ee-037</t>
         </is>
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>Rule Reveal</t>
+          <t>Consider Minute</t>
         </is>
       </c>
       <c r="C131" s="3" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D131" s="3" t="n">
-        <v>11937.68</v>
+        <v>8695.809999999999</v>
       </c>
       <c r="E131" s="3" t="n">
-        <v>9527.15</v>
+        <v>6617.49</v>
       </c>
       <c r="F131" s="3" t="inlineStr">
         <is>
-          <t>Barnes-Chung</t>
+          <t>King and Sons</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>zJ-025</t>
+          <t>jj-662</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>Kitchen Car</t>
+          <t>If Tough</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D132" s="2" t="n">
-        <v>10322.68</v>
+        <v>14584</v>
       </c>
       <c r="E132" s="2" t="n">
-        <v>8194.24</v>
+        <v>9954.5</v>
       </c>
       <c r="F132" s="2" t="inlineStr">
         <is>
-          <t>Cruz, Moreno and Henderson</t>
+          <t>Humphrey Ltd</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>xr-526</t>
+          <t>XN-853</t>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>I Listen</t>
+          <t>Dream Can</t>
         </is>
       </c>
       <c r="C133" s="3" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D133" s="3" t="n">
-        <v>1573.36</v>
+        <v>6843.02</v>
       </c>
       <c r="E133" s="3" t="n">
-        <v>1356.41</v>
+        <v>5388.38</v>
       </c>
       <c r="F133" s="3" t="inlineStr">
         <is>
-          <t>Ross-Potts</t>
+          <t>Schwartz Inc</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>zG-986</t>
+          <t>Bl-629</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>Surface Might</t>
+          <t>Deep Lay</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>2554.44</v>
+        <v>10523.54</v>
       </c>
       <c r="E134" s="2" t="n">
-        <v>2223.44</v>
+        <v>9180.209999999999</v>
       </c>
       <c r="F134" s="2" t="inlineStr">
         <is>
-          <t>Bennett LLC</t>
+          <t>Hunter-Pham</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>yN-905</t>
+          <t>Ti-671</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>Director Group</t>
+          <t>Expect Recently</t>
         </is>
       </c>
       <c r="C135" s="3" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D135" s="3" t="n">
-        <v>3796.33</v>
+        <v>5183.48</v>
       </c>
       <c r="E135" s="3" t="n">
-        <v>3412.2</v>
+        <v>3798.11</v>
       </c>
       <c r="F135" s="3" t="inlineStr">
         <is>
-          <t>Wallace Ltd</t>
+          <t>Byrd Inc</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>NS-125</t>
+          <t>rF-812</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>Indicate A</t>
+          <t>Could Rise</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>12725.25</v>
+        <v>7751.65</v>
       </c>
       <c r="E136" s="2" t="n">
-        <v>8812.190000000001</v>
+        <v>5174.7</v>
       </c>
       <c r="F136" s="2" t="inlineStr">
         <is>
-          <t>Meyer-Palmer</t>
+          <t>Flores-Dillon</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>rm-996</t>
+          <t>SP-489</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>Do Surface</t>
+          <t>Time Local</t>
         </is>
       </c>
       <c r="C137" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D137" s="3" t="n">
-        <v>7764.36</v>
+        <v>13696.63</v>
       </c>
       <c r="E137" s="3" t="n">
-        <v>6269.05</v>
+        <v>9823.629999999999</v>
       </c>
       <c r="F137" s="3" t="inlineStr">
         <is>
-          <t>Vargas-Thompson</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>HJ-108</t>
+          <t>yj-433</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>Theory Present</t>
+          <t>Policy Quite</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>11905.64</v>
+        <v>13996.66</v>
       </c>
       <c r="E138" s="2" t="n">
-        <v>8485.32</v>
+        <v>9925.33</v>
       </c>
       <c r="F138" s="2" t="inlineStr">
         <is>
-          <t>Tanner, Stein and Miller</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>wQ-256</t>
+          <t>GP-223</t>
         </is>
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>History Set</t>
+          <t>Public Drive</t>
         </is>
       </c>
       <c r="C139" s="3" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D139" s="3" t="n">
-        <v>3378.01</v>
+        <v>10699.87</v>
       </c>
       <c r="E139" s="3" t="n">
-        <v>2506.6</v>
+        <v>8029.82</v>
       </c>
       <c r="F139" s="3" t="inlineStr">
         <is>
-          <t>Walker-Adams</t>
+          <t>Tyler-Ewing</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>LH-607</t>
+          <t>Bz-401</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>Probably Under</t>
+          <t>Car Region</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>6665.63</v>
+        <v>7828.99</v>
       </c>
       <c r="E140" s="2" t="n">
-        <v>4825.91</v>
+        <v>5356.89</v>
       </c>
       <c r="F140" s="2" t="inlineStr">
         <is>
-          <t>Bowers-Jarvis</t>
+          <t>Booth, Thomas and Murray</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>qn-979</t>
+          <t>eb-643</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
         <is>
-          <t>The Goal</t>
+          <t>Pick Test</t>
         </is>
       </c>
       <c r="C141" s="3" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D141" s="3" t="n">
-        <v>4988.24</v>
+        <v>9802.620000000001</v>
       </c>
       <c r="E141" s="3" t="n">
-        <v>3367.05</v>
+        <v>7857.27</v>
       </c>
       <c r="F141" s="3" t="inlineStr">
         <is>
-          <t>Baker, Smith and Ray</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>Cx-416</t>
+          <t>ga-942</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>Same Star</t>
+          <t>Relationship Course</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>6893.19</v>
+        <v>8188.52</v>
       </c>
       <c r="E142" s="2" t="n">
-        <v>4939.02</v>
+        <v>5564.5</v>
       </c>
       <c r="F142" s="2" t="inlineStr">
         <is>
-          <t>Thompson Ltd</t>
+          <t>Cisneros-Aguilar</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="3" t="inlineStr">
         <is>
-          <t>eZ-192</t>
+          <t>aF-430</t>
         </is>
       </c>
       <c r="B143" s="3" t="inlineStr">
         <is>
-          <t>Capital Ready</t>
+          <t>Stay Around</t>
         </is>
       </c>
       <c r="C143" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D143" s="3" t="n">
-        <v>12030.67</v>
+        <v>14121.77</v>
       </c>
       <c r="E143" s="3" t="n">
-        <v>8809.4</v>
+        <v>9891.540000000001</v>
       </c>
       <c r="F143" s="3" t="inlineStr">
         <is>
-          <t>Nichols, Hamilton and Romero</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>AN-761</t>
+          <t>xQ-262</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>Everyone Cell</t>
+          <t>Practice Improve</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>1956.45</v>
+        <v>6034.28</v>
       </c>
       <c r="E144" s="2" t="n">
-        <v>1521.05</v>
+        <v>4945.71</v>
       </c>
       <c r="F144" s="2" t="inlineStr">
         <is>
-          <t>Hebert-Brooks</t>
+          <t>Washington, Sanders and Mahoney</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="3" t="inlineStr">
         <is>
-          <t>mW-349</t>
+          <t>dj-830</t>
         </is>
       </c>
       <c r="B145" s="3" t="inlineStr">
         <is>
-          <t>Year Individual</t>
+          <t>Me Inside</t>
         </is>
       </c>
       <c r="C145" s="3" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D145" s="3" t="n">
-        <v>4735.01</v>
+        <v>5686.74</v>
       </c>
       <c r="E145" s="3" t="n">
-        <v>4199.05</v>
+        <v>4561.48</v>
       </c>
       <c r="F145" s="3" t="inlineStr">
         <is>
-          <t>Moore-White</t>
+          <t>Parrish-Rogers</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>CV-005</t>
+          <t>Jk-645</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>Explain Various</t>
+          <t>Future Assume</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>11682.32</v>
+        <v>8876.9</v>
       </c>
       <c r="E146" s="2" t="n">
-        <v>9059.110000000001</v>
+        <v>6721.93</v>
       </c>
       <c r="F146" s="2" t="inlineStr">
         <is>
-          <t>Harrell Ltd</t>
+          <t>Wagner, Nichols and Rodriguez</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="3" t="inlineStr">
         <is>
-          <t>ST-959</t>
+          <t>bT-902</t>
         </is>
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>Per Probably</t>
+          <t>All Fish</t>
         </is>
       </c>
       <c r="C147" s="3" t="n">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="D147" s="3" t="n">
-        <v>1951.63</v>
+        <v>10575.76</v>
       </c>
       <c r="E147" s="3" t="n">
-        <v>1379.14</v>
+        <v>8875.68</v>
       </c>
       <c r="F147" s="3" t="inlineStr">
         <is>
-          <t>Richardson Inc</t>
+          <t>Freeman, Williams and Morales</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>fS-093</t>
+          <t>Zf-210</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>Pick Child</t>
+          <t>May Seven</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>7932.15</v>
+        <v>4606.29</v>
       </c>
       <c r="E148" s="2" t="n">
-        <v>6661.44</v>
+        <v>3371.16</v>
       </c>
       <c r="F148" s="2" t="inlineStr">
         <is>
-          <t>Carson Ltd</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="3" t="inlineStr">
         <is>
-          <t>Nw-238</t>
+          <t>pO-541</t>
         </is>
       </c>
       <c r="B149" s="3" t="inlineStr">
         <is>
-          <t>Lawyer Real</t>
+          <t>Bad Both</t>
         </is>
       </c>
       <c r="C149" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D149" s="3" t="n">
-        <v>8704.040000000001</v>
+        <v>10736.63</v>
       </c>
       <c r="E149" s="3" t="n">
-        <v>7129.99</v>
+        <v>9466.860000000001</v>
       </c>
       <c r="F149" s="3" t="inlineStr">
         <is>
-          <t>Wilkins PLC</t>
+          <t>Wright, Ray and Guerra</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>VE-949</t>
+          <t>Dp-822</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>Appear Today</t>
+          <t>Coach Myself</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>10319.93</v>
+        <v>3541.99</v>
       </c>
       <c r="E150" s="2" t="n">
-        <v>7583.4</v>
+        <v>3012.3</v>
       </c>
       <c r="F150" s="2" t="inlineStr">
         <is>
-          <t>Jarvis Group</t>
+          <t>Price Ltd</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="3" t="inlineStr">
         <is>
-          <t>Ys-331</t>
+          <t>Qh-121</t>
         </is>
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t>Girl Read</t>
+          <t>Card Trade</t>
         </is>
       </c>
       <c r="C151" s="3" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D151" s="3" t="n">
-        <v>3843.48</v>
+        <v>12167.88</v>
       </c>
       <c r="E151" s="3" t="n">
-        <v>2590.16</v>
+        <v>9215.9</v>
       </c>
       <c r="F151" s="3" t="inlineStr">
         <is>
-          <t>Hebert-Brooks</t>
+          <t>Garza-Byrd</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>dI-620</t>
+          <t>OI-559</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>Away Whole</t>
+          <t>Career Option</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>7062.77</v>
+        <v>12551.37</v>
       </c>
       <c r="E152" s="2" t="n">
-        <v>6001.22</v>
+        <v>9544.75</v>
       </c>
       <c r="F152" s="2" t="inlineStr">
         <is>
-          <t>Perry, Johnson and Pearson</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="3" t="inlineStr">
         <is>
-          <t>ON-457</t>
+          <t>gN-257</t>
         </is>
       </c>
       <c r="B153" s="3" t="inlineStr">
         <is>
-          <t>Week Reach</t>
+          <t>Successful Factor</t>
         </is>
       </c>
       <c r="C153" s="3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D153" s="3" t="n">
-        <v>7083.49</v>
+        <v>6711.81</v>
       </c>
       <c r="E153" s="3" t="n">
-        <v>6321.18</v>
+        <v>4531.1</v>
       </c>
       <c r="F153" s="3" t="inlineStr">
         <is>
-          <t>Davenport, Sharp and Duran</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>sK-815</t>
+          <t>bL-660</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>Figure Program</t>
+          <t>Sister Similar</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D154" s="2" t="n">
-        <v>1176.14</v>
+        <v>10714.24</v>
       </c>
       <c r="E154" s="2" t="n">
-        <v>1004.61</v>
+        <v>7693.81</v>
       </c>
       <c r="F154" s="2" t="inlineStr">
         <is>
-          <t>Gonzales and Sons</t>
+          <t>Wagner, Nichols and Rodriguez</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="3" t="inlineStr">
         <is>
-          <t>Mg-164</t>
+          <t>uN-088</t>
         </is>
       </c>
       <c r="B155" s="3" t="inlineStr">
         <is>
-          <t>Idea Young</t>
+          <t>Audience Play</t>
         </is>
       </c>
       <c r="C155" s="3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D155" s="3" t="n">
-        <v>7218.7</v>
+        <v>6051.11</v>
       </c>
       <c r="E155" s="3" t="n">
-        <v>6260.9</v>
+        <v>4706.69</v>
       </c>
       <c r="F155" s="3" t="inlineStr">
         <is>
-          <t>Wallace Ltd</t>
+          <t>Allen Ltd</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>Zh-969</t>
+          <t>MJ-757</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>Buy Land</t>
+          <t>Power Reveal</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>3693.35</v>
+        <v>8893.870000000001</v>
       </c>
       <c r="E156" s="2" t="n">
-        <v>2564.35</v>
+        <v>5981.84</v>
       </c>
       <c r="F156" s="2" t="inlineStr">
         <is>
-          <t>Hamilton, Lee and Delacruz</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="3" t="inlineStr">
         <is>
-          <t>kj-346</t>
+          <t>ci-206</t>
         </is>
       </c>
       <c r="B157" s="3" t="inlineStr">
         <is>
-          <t>Card Event</t>
+          <t>Develop Once</t>
         </is>
       </c>
       <c r="C157" s="3" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D157" s="3" t="n">
-        <v>3939.32</v>
+        <v>9924.77</v>
       </c>
       <c r="E157" s="3" t="n">
-        <v>3183.43</v>
+        <v>7225.75</v>
       </c>
       <c r="F157" s="3" t="inlineStr">
         <is>
-          <t>Sims LLC</t>
+          <t>Mcknight Ltd</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>mG-200</t>
+          <t>bA-056</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>Environmental Kind</t>
+          <t>Recent History</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>2915.59</v>
+        <v>5043.53</v>
       </c>
       <c r="E158" s="2" t="n">
-        <v>2417.58</v>
+        <v>4476.65</v>
       </c>
       <c r="F158" s="2" t="inlineStr">
         <is>
-          <t>Cochran Inc</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>rT-093</t>
+          <t>rX-856</t>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
         <is>
-          <t>See Find</t>
+          <t>Rock Base</t>
         </is>
       </c>
       <c r="C159" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D159" s="3" t="n">
-        <v>9910.360000000001</v>
+        <v>4905.56</v>
       </c>
       <c r="E159" s="3" t="n">
-        <v>6817.89</v>
+        <v>3283.36</v>
       </c>
       <c r="F159" s="3" t="inlineStr">
         <is>
-          <t>Hill LLC</t>
+          <t>Whitney, Watson and Lyons</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>FZ-875</t>
+          <t>bt-806</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>Process Suggest</t>
+          <t>Mean Mrs</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>10158.61</v>
+        <v>11503.55</v>
       </c>
       <c r="E160" s="2" t="n">
-        <v>6850.11</v>
+        <v>8254.01</v>
       </c>
       <c r="F160" s="2" t="inlineStr">
         <is>
-          <t>Johnson-Smith</t>
+          <t>Cox LLC</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>ju-580</t>
+          <t>Oq-980</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
         <is>
-          <t>Race Security</t>
+          <t>Else Detail</t>
         </is>
       </c>
       <c r="C161" s="3" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D161" s="3" t="n">
-        <v>10281.57</v>
+        <v>10554.2</v>
       </c>
       <c r="E161" s="3" t="n">
-        <v>7143.22</v>
+        <v>7241.78</v>
       </c>
       <c r="F161" s="3" t="inlineStr">
         <is>
-          <t>Walker-Adams</t>
+          <t>Tyler-Ewing</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>OG-124</t>
+          <t>GT-124</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>Work Best</t>
+          <t>Affect Thousand</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D162" s="2" t="n">
-        <v>1441.22</v>
+        <v>4607.75</v>
       </c>
       <c r="E162" s="2" t="n">
-        <v>1184.68</v>
+        <v>4150.59</v>
       </c>
       <c r="F162" s="2" t="inlineStr">
         <is>
-          <t>Webb-Pacheco</t>
+          <t>Salazar-Spencer</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="3" t="inlineStr">
         <is>
-          <t>RO-307</t>
+          <t>ta-352</t>
         </is>
       </c>
       <c r="B163" s="3" t="inlineStr">
         <is>
-          <t>Skin Ever</t>
+          <t>Network Side</t>
         </is>
       </c>
       <c r="C163" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D163" s="3" t="n">
-        <v>12073.88</v>
+        <v>5381.95</v>
       </c>
       <c r="E163" s="3" t="n">
-        <v>8874.76</v>
+        <v>4454.78</v>
       </c>
       <c r="F163" s="3" t="inlineStr">
         <is>
-          <t>Tanner, Stein and Miller</t>
+          <t>Allen Ltd</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>FT-661</t>
+          <t>Mr-842</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>International Occur</t>
+          <t>Security So</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D164" s="2" t="n">
-        <v>13728.69</v>
+        <v>11296.38</v>
       </c>
       <c r="E164" s="2" t="n">
-        <v>9903.950000000001</v>
+        <v>8322.33</v>
       </c>
       <c r="F164" s="2" t="inlineStr">
         <is>
-          <t>Walker-Adams</t>
+          <t>Padilla-Bautista</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="3" t="inlineStr">
         <is>
-          <t>sE-535</t>
+          <t>Lt-022</t>
         </is>
       </c>
       <c r="B165" s="3" t="inlineStr">
         <is>
-          <t>Order Center</t>
+          <t>Dinner Stand</t>
         </is>
       </c>
       <c r="C165" s="3" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D165" s="3" t="n">
-        <v>8180.12</v>
+        <v>5761.37</v>
       </c>
       <c r="E165" s="3" t="n">
-        <v>6703.93</v>
+        <v>4713.87</v>
       </c>
       <c r="F165" s="3" t="inlineStr">
         <is>
-          <t>Pierce, Smith and Garcia</t>
+          <t>Ellis and Sons</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>oF-295</t>
+          <t>ue-306</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>Central Identify</t>
+          <t>Kitchen War</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D166" s="2" t="n">
-        <v>2819.43</v>
+        <v>10169.95</v>
       </c>
       <c r="E166" s="2" t="n">
-        <v>1912.41</v>
+        <v>6923.39</v>
       </c>
       <c r="F166" s="2" t="inlineStr">
         <is>
-          <t>Pierce, Smith and Garcia</t>
+          <t>Booth, Thomas and Murray</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="3" t="inlineStr">
         <is>
-          <t>dx-317</t>
+          <t>RC-197</t>
         </is>
       </c>
       <c r="B167" s="3" t="inlineStr">
         <is>
-          <t>Newspaper Option</t>
+          <t>Today Indeed</t>
         </is>
       </c>
       <c r="C167" s="3" t="n">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="D167" s="3" t="n">
-        <v>7475.91</v>
+        <v>8179.68</v>
       </c>
       <c r="E167" s="3" t="n">
-        <v>5188.01</v>
+        <v>6264.58</v>
       </c>
       <c r="F167" s="3" t="inlineStr">
         <is>
-          <t>Jefferson LLC</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>Ig-847</t>
+          <t>KU-455</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>Stand Citizen</t>
+          <t>Goal Force</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D168" s="2" t="n">
-        <v>4893.69</v>
+        <v>2523.9</v>
       </c>
       <c r="E168" s="2" t="n">
-        <v>4300.5</v>
+        <v>2074.02</v>
       </c>
       <c r="F168" s="2" t="inlineStr">
         <is>
-          <t>Bowers-Jarvis</t>
+          <t>Mcbride-Wolfe</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="3" t="inlineStr">
         <is>
-          <t>BN-826</t>
+          <t>Hk-202</t>
         </is>
       </c>
       <c r="B169" s="3" t="inlineStr">
         <is>
-          <t>Page Forget</t>
+          <t>Media Continue</t>
         </is>
       </c>
       <c r="C169" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D169" s="3" t="n">
-        <v>12269.66</v>
+        <v>12520.64</v>
       </c>
       <c r="E169" s="3" t="n">
-        <v>9242.190000000001</v>
+        <v>9856.01</v>
       </c>
       <c r="F169" s="3" t="inlineStr">
         <is>
-          <t>Johnson, Brown and Jefferson</t>
+          <t>Turner LLC</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>Rg-079</t>
+          <t>PL-877</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>Tell Budget</t>
+          <t>Condition Involve</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D170" s="2" t="n">
-        <v>10310.29</v>
+        <v>9205.379999999999</v>
       </c>
       <c r="E170" s="2" t="n">
-        <v>8575.09</v>
+        <v>8304.42</v>
       </c>
       <c r="F170" s="2" t="inlineStr">
         <is>
-          <t>Lopez, Charles and West</t>
+          <t>Salazar-Spencer</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="3" t="inlineStr">
         <is>
-          <t>Iw-518</t>
+          <t>zy-650</t>
         </is>
       </c>
       <c r="B171" s="3" t="inlineStr">
         <is>
-          <t>Image Care</t>
+          <t>Author Back</t>
         </is>
       </c>
       <c r="C171" s="3" t="n">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D171" s="3" t="n">
-        <v>5488.6</v>
+        <v>11847.76</v>
       </c>
       <c r="E171" s="3" t="n">
-        <v>4136.7</v>
+        <v>9353</v>
       </c>
       <c r="F171" s="3" t="inlineStr">
         <is>
-          <t>Watts Ltd</t>
+          <t>Austin PLC</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>Qh-667</t>
+          <t>dp-928</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>And Win</t>
+          <t>Myself Believe</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="D172" s="2" t="n">
-        <v>12276.72</v>
+        <v>3937.6</v>
       </c>
       <c r="E172" s="2" t="n">
-        <v>8937.040000000001</v>
+        <v>3042.2</v>
       </c>
       <c r="F172" s="2" t="inlineStr">
         <is>
-          <t>King, Zuniga and Robinson</t>
+          <t>Castro-Williams</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="3" t="inlineStr">
         <is>
-          <t>ML-688</t>
+          <t>Kj-389</t>
         </is>
       </c>
       <c r="B173" s="3" t="inlineStr">
         <is>
-          <t>Eye Now</t>
+          <t>Writer Less</t>
         </is>
       </c>
       <c r="C173" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D173" s="3" t="n">
-        <v>6471.77</v>
+        <v>10174.45</v>
       </c>
       <c r="E173" s="3" t="n">
-        <v>5322.84</v>
+        <v>7661.19</v>
       </c>
       <c r="F173" s="3" t="inlineStr">
         <is>
-          <t>Mcpherson-Clark</t>
+          <t>Washington, Sanders and Mahoney</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>sN-085</t>
+          <t>aC-199</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>Agency Water</t>
+          <t>Hour Store</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D174" s="2" t="n">
-        <v>8922.190000000001</v>
+        <v>4199.55</v>
       </c>
       <c r="E174" s="2" t="n">
-        <v>7092.35</v>
+        <v>2824.84</v>
       </c>
       <c r="F174" s="2" t="inlineStr">
         <is>
-          <t>Ray, Oliver and Martinez</t>
+          <t>Whitney, Watson and Lyons</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="3" t="inlineStr">
         <is>
-          <t>In-129</t>
+          <t>aT-119</t>
         </is>
       </c>
       <c r="B175" s="3" t="inlineStr">
         <is>
-          <t>Debate Significant</t>
+          <t>Action Meeting</t>
         </is>
       </c>
       <c r="C175" s="3" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D175" s="3" t="n">
-        <v>4683.27</v>
+        <v>9265.57</v>
       </c>
       <c r="E175" s="3" t="n">
-        <v>3642.66</v>
+        <v>8017.95</v>
       </c>
       <c r="F175" s="3" t="inlineStr">
         <is>
-          <t>Johnston-Duncan</t>
+          <t>Smith Group</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>Xv-001</t>
+          <t>Yn-061</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>Move Hit</t>
+          <t>Various Cover</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D176" s="2" t="n">
-        <v>5177.03</v>
+        <v>5820.7</v>
       </c>
       <c r="E176" s="2" t="n">
-        <v>3867.24</v>
+        <v>4912.09</v>
       </c>
       <c r="F176" s="2" t="inlineStr">
         <is>
-          <t>Fowler, Collins and Reynolds</t>
+          <t>Allen Ltd</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="3" t="inlineStr">
         <is>
-          <t>Fw-879</t>
+          <t>vz-845</t>
         </is>
       </c>
       <c r="B177" s="3" t="inlineStr">
         <is>
-          <t>Toward Condition</t>
+          <t>Than Cup</t>
         </is>
       </c>
       <c r="C177" s="3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D177" s="3" t="n">
-        <v>7786.52</v>
+        <v>7410.55</v>
       </c>
       <c r="E177" s="3" t="n">
-        <v>6498.64</v>
+        <v>5371.93</v>
       </c>
       <c r="F177" s="3" t="inlineStr">
         <is>
-          <t>Graham, Johnson and Green</t>
+          <t>Whitney, Watson and Lyons</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>Kt-262</t>
+          <t>Ew-921</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>Sea Garden</t>
+          <t>Just Owner</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D178" s="2" t="n">
-        <v>8332.43</v>
+        <v>7755.18</v>
       </c>
       <c r="E178" s="2" t="n">
-        <v>7398.9</v>
+        <v>6380.96</v>
       </c>
       <c r="F178" s="2" t="inlineStr">
         <is>
-          <t>Watts Ltd</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="3" t="inlineStr">
         <is>
-          <t>wa-741</t>
+          <t>Lu-140</t>
         </is>
       </c>
       <c r="B179" s="3" t="inlineStr">
         <is>
-          <t>Entire But</t>
+          <t>Toward Program</t>
         </is>
       </c>
       <c r="C179" s="3" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D179" s="3" t="n">
-        <v>3704.75</v>
+        <v>8347.92</v>
       </c>
       <c r="E179" s="3" t="n">
-        <v>2685.87</v>
+        <v>6742.42</v>
       </c>
       <c r="F179" s="3" t="inlineStr">
         <is>
-          <t>Leon-Mcdaniel</t>
+          <t>Freeman, Carter and Wilson</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>ma-099</t>
+          <t>uL-115</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>Pretty Bring</t>
+          <t>House Glass</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D180" s="2" t="n">
-        <v>10434.19</v>
+        <v>5500.77</v>
       </c>
       <c r="E180" s="2" t="n">
-        <v>7961.69</v>
+        <v>4804.28</v>
       </c>
       <c r="F180" s="2" t="inlineStr">
         <is>
-          <t>Lopez LLC</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>SA-478</t>
+          <t>Ma-956</t>
         </is>
       </c>
       <c r="B181" s="3" t="inlineStr">
         <is>
-          <t>Realize Officer</t>
+          <t>Third Now</t>
         </is>
       </c>
       <c r="C181" s="3" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D181" s="3" t="n">
-        <v>10663.13</v>
+        <v>2938.91</v>
       </c>
       <c r="E181" s="3" t="n">
-        <v>7112.48</v>
+        <v>2200.91</v>
       </c>
       <c r="F181" s="3" t="inlineStr">
         <is>
-          <t>Shaffer, Horton and Jones</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>dF-582</t>
+          <t>aC-792</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>Air And</t>
+          <t>Sit Same</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D182" s="2" t="n">
-        <v>13794.62</v>
+        <v>12267.64</v>
       </c>
       <c r="E182" s="2" t="n">
-        <v>9443.34</v>
+        <v>9846.309999999999</v>
       </c>
       <c r="F182" s="2" t="inlineStr">
         <is>
-          <t>Moore Group</t>
+          <t>Williams, Lynch and Morgan</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="3" t="inlineStr">
         <is>
-          <t>me-816</t>
+          <t>Wb-317</t>
         </is>
       </c>
       <c r="B183" s="3" t="inlineStr">
         <is>
-          <t>Performance Person</t>
+          <t>Very Compare</t>
         </is>
       </c>
       <c r="C183" s="3" t="n">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D183" s="3" t="n">
-        <v>4148.26</v>
+        <v>5066.16</v>
       </c>
       <c r="E183" s="3" t="n">
-        <v>2903.76</v>
+        <v>4326.63</v>
       </c>
       <c r="F183" s="3" t="inlineStr">
         <is>
-          <t>Smith PLC</t>
+          <t>Ponce-Schwartz</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>MS-985</t>
+          <t>nC-714</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>Door This</t>
+          <t>Religious Force</t>
         </is>
       </c>
       <c r="C184" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D184" s="2" t="n">
-        <v>10728.63</v>
+        <v>7139.97</v>
       </c>
       <c r="E184" s="2" t="n">
-        <v>8452.15</v>
+        <v>6084.72</v>
       </c>
       <c r="F184" s="2" t="inlineStr">
         <is>
-          <t>Garcia Group</t>
+          <t>Wilson-Bernard</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="3" t="inlineStr">
         <is>
-          <t>kd-067</t>
+          <t>BQ-028</t>
         </is>
       </c>
       <c r="B185" s="3" t="inlineStr">
         <is>
-          <t>Than Letter</t>
+          <t>Report Five</t>
         </is>
       </c>
       <c r="C185" s="3" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D185" s="3" t="n">
-        <v>11691.61</v>
+        <v>6541.33</v>
       </c>
       <c r="E185" s="3" t="n">
-        <v>8631.68</v>
+        <v>4855.96</v>
       </c>
       <c r="F185" s="3" t="inlineStr">
         <is>
-          <t>Brown-Wolf</t>
+          <t>Allen Ltd</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>DD-747</t>
+          <t>yx-047</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>Center Glass</t>
+          <t>Might Feel</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D186" s="2" t="n">
-        <v>8408.219999999999</v>
+        <v>11241.09</v>
       </c>
       <c r="E186" s="2" t="n">
-        <v>5663.27</v>
+        <v>8613.370000000001</v>
       </c>
       <c r="F186" s="2" t="inlineStr">
         <is>
-          <t>Gordon, Diaz and Smith</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="3" t="inlineStr">
         <is>
-          <t>hL-673</t>
+          <t>iB-980</t>
         </is>
       </c>
       <c r="B187" s="3" t="inlineStr">
         <is>
-          <t>Parent Design</t>
+          <t>Oil National</t>
         </is>
       </c>
       <c r="C187" s="3" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D187" s="3" t="n">
-        <v>6205.69</v>
+        <v>13764.66</v>
       </c>
       <c r="E187" s="3" t="n">
-        <v>4574.89</v>
+        <v>9958.129999999999</v>
       </c>
       <c r="F187" s="3" t="inlineStr">
         <is>
-          <t>King-Cannon</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>VF-691</t>
+          <t>hr-751</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>Without Series</t>
+          <t>Information Instead</t>
         </is>
       </c>
       <c r="C188" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D188" s="2" t="n">
-        <v>9550.780000000001</v>
+        <v>1672.01</v>
       </c>
       <c r="E188" s="2" t="n">
-        <v>8292.389999999999</v>
+        <v>1301.9</v>
       </c>
       <c r="F188" s="2" t="inlineStr">
         <is>
-          <t>Thompson PLC</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="3" t="inlineStr">
         <is>
-          <t>Br-021</t>
+          <t>Cs-535</t>
         </is>
       </c>
       <c r="B189" s="3" t="inlineStr">
         <is>
-          <t>Seven Tree</t>
+          <t>That Left</t>
         </is>
       </c>
       <c r="C189" s="3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D189" s="3" t="n">
-        <v>9134.82</v>
+        <v>8643.299999999999</v>
       </c>
       <c r="E189" s="3" t="n">
-        <v>6235.04</v>
+        <v>7602.51</v>
       </c>
       <c r="F189" s="3" t="inlineStr">
         <is>
-          <t>Glenn-Cole</t>
+          <t>Padilla-Bautista</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>fY-774</t>
+          <t>gv-361</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>Eight Institution</t>
+          <t>Together Shake</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="D190" s="2" t="n">
-        <v>4541.32</v>
+        <v>1538.52</v>
       </c>
       <c r="E190" s="2" t="n">
-        <v>3701.25</v>
+        <v>1302.98</v>
       </c>
       <c r="F190" s="2" t="inlineStr">
         <is>
-          <t>Lopez LLC</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="3" t="inlineStr">
         <is>
-          <t>vq-732</t>
+          <t>Mk-602</t>
         </is>
       </c>
       <c r="B191" s="3" t="inlineStr">
         <is>
-          <t>Hospital Nice</t>
+          <t>Want Wife</t>
         </is>
       </c>
       <c r="C191" s="3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D191" s="3" t="n">
-        <v>4669.43</v>
+        <v>9204.02</v>
       </c>
       <c r="E191" s="3" t="n">
-        <v>4061.2</v>
+        <v>8011.2</v>
       </c>
       <c r="F191" s="3" t="inlineStr">
         <is>
-          <t>Williams, Gallegos and Booth</t>
+          <t>Freeman, Williams and Morales</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>YJ-276</t>
+          <t>JJ-703</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>They Task</t>
+          <t>Move Artist</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D192" s="2" t="n">
-        <v>5281.42</v>
+        <v>7647.37</v>
       </c>
       <c r="E192" s="2" t="n">
-        <v>3563.71</v>
+        <v>5328.59</v>
       </c>
       <c r="F192" s="2" t="inlineStr">
         <is>
-          <t>Miller-Brown</t>
+          <t>Wright, Ray and Guerra</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="3" t="inlineStr">
         <is>
-          <t>Fi-552</t>
+          <t>kx-116</t>
         </is>
       </c>
       <c r="B193" s="3" t="inlineStr">
         <is>
-          <t>Pass Stock</t>
+          <t>Participant Lead</t>
         </is>
       </c>
       <c r="C193" s="3" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D193" s="3" t="n">
-        <v>5183.61</v>
+        <v>10658.97</v>
       </c>
       <c r="E193" s="3" t="n">
-        <v>4417.65</v>
+        <v>7803.42</v>
       </c>
       <c r="F193" s="3" t="inlineStr">
         <is>
-          <t>Torres-Morgan</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>xQ-351</t>
+          <t>lP-714</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>Daughter Leave</t>
+          <t>Line Represent</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D194" s="2" t="n">
-        <v>10144.48</v>
+        <v>7437.93</v>
       </c>
       <c r="E194" s="2" t="n">
-        <v>7171.24</v>
+        <v>5869.71</v>
       </c>
       <c r="F194" s="2" t="inlineStr">
         <is>
-          <t>Johnson, Brown and Jefferson</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="3" t="inlineStr">
         <is>
-          <t>ls-010</t>
+          <t>WY-240</t>
         </is>
       </c>
       <c r="B195" s="3" t="inlineStr">
         <is>
-          <t>Lot Job</t>
+          <t>Phone Discuss</t>
         </is>
       </c>
       <c r="C195" s="3" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D195" s="3" t="n">
-        <v>4573.68</v>
+        <v>12910.69</v>
       </c>
       <c r="E195" s="3" t="n">
-        <v>3280.36</v>
+        <v>9762.110000000001</v>
       </c>
       <c r="F195" s="3" t="inlineStr">
         <is>
-          <t>King-Cannon</t>
+          <t>Crawford-Henderson</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>Xn-958</t>
+          <t>Lf-307</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>From Result</t>
+          <t>Success Bank</t>
         </is>
       </c>
       <c r="C196" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D196" s="2" t="n">
-        <v>4310.25</v>
+        <v>3626.91</v>
       </c>
       <c r="E196" s="2" t="n">
-        <v>3884.65</v>
+        <v>2652.46</v>
       </c>
       <c r="F196" s="2" t="inlineStr">
         <is>
-          <t>Beltran Group</t>
+          <t>Clark, Hamilton and Shaffer</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="3" t="inlineStr">
         <is>
-          <t>OJ-068</t>
+          <t>pa-199</t>
         </is>
       </c>
       <c r="B197" s="3" t="inlineStr">
         <is>
-          <t>Fear Hit</t>
+          <t>Watch Reality</t>
         </is>
       </c>
       <c r="C197" s="3" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D197" s="3" t="n">
-        <v>4282.2</v>
+        <v>7904.39</v>
       </c>
       <c r="E197" s="3" t="n">
-        <v>3020.24</v>
+        <v>6001.93</v>
       </c>
       <c r="F197" s="3" t="inlineStr">
         <is>
-          <t>Glenn-Cole</t>
+          <t>Wright, Ray and Guerra</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>uC-203</t>
+          <t>ZC-755</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>Manage Drop</t>
+          <t>Leave Discuss</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D198" s="2" t="n">
-        <v>11035.67</v>
+        <v>11020.73</v>
       </c>
       <c r="E198" s="2" t="n">
-        <v>8789.610000000001</v>
+        <v>9091.889999999999</v>
       </c>
       <c r="F198" s="2" t="inlineStr">
         <is>
-          <t>Watts Ltd</t>
+          <t>Wagner, Nichols and Rodriguez</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="3" t="inlineStr">
         <is>
-          <t>Np-406</t>
+          <t>sL-692</t>
         </is>
       </c>
       <c r="B199" s="3" t="inlineStr">
         <is>
-          <t>Town Maintain</t>
+          <t>Woman Once</t>
         </is>
       </c>
       <c r="C199" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D199" s="3" t="n">
-        <v>4334.51</v>
+        <v>11633.53</v>
       </c>
       <c r="E199" s="3" t="n">
-        <v>3336.91</v>
+        <v>8578.68</v>
       </c>
       <c r="F199" s="3" t="inlineStr">
         <is>
-          <t>Hebert-Brooks</t>
+          <t>aaa</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>jU-068</t>
+          <t>ww-349</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>Measure Radio</t>
+          <t>Church Particular</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D200" s="2" t="n">
-        <v>2799.66</v>
+        <v>10245.08</v>
       </c>
       <c r="E200" s="2" t="n">
-        <v>2325.4</v>
+        <v>7547.75</v>
       </c>
       <c r="F200" s="2" t="inlineStr">
         <is>
-          <t>Estrada-Lewis</t>
+          <t>No Registrado</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="3" t="inlineStr">
         <is>
-          <t>kt-021</t>
+          <t>RB-298</t>
         </is>
       </c>
       <c r="B201" s="3" t="inlineStr">
         <is>
-          <t>Month Pressure</t>
+          <t>Moment Case</t>
         </is>
       </c>
       <c r="C201" s="3" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D201" s="3" t="n">
-        <v>2514.78</v>
+        <v>4971.57</v>
       </c>
       <c r="E201" s="3" t="n">
-        <v>2255.83</v>
+        <v>3716.54</v>
       </c>
       <c r="F201" s="3" t="inlineStr">
         <is>
-          <t>Castro-Stephens</t>
+          <t>Hunter-Pham</t>
         </is>
       </c>
     </row>
